--- a/data/data_passthrough.xlsx
+++ b/data/data_passthrough.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulogarridogrijalva/Documents/PES/Economeria IV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexp\OneDrive\Documentos\basicdir\github\econometria_IV_pes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB23A732-EE4B-C145-84B6-C55FD7EFB47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED62333-1D3D-4307-8059-716173B8F4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0830BE85-1A9E-3147-BF8F-1829823258AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0830BE85-1A9E-3147-BF8F-1829823258AB}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -195,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -258,7 +255,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -274,796 +271,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Antiguo"/>
-      <sheetName val="Índice"/>
-      <sheetName val="C.1"/>
-      <sheetName val="Gráfico1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="152">
-          <cell r="D152">
-            <v>4.2777730220465884</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="D153">
-            <v>4.0553665731926571</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="D154">
-            <v>0.56796102424605976</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="D155">
-            <v>6.345526566605983</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="D156">
-            <v>4.0957649703635468</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="D157">
-            <v>2.7723323664839086</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="D158">
-            <v>3.8232782212683816</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="D159">
-            <v>3.5752442620772058</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="D160">
-            <v>3.9014282587662876</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="D161">
-            <v>3.283568044856608</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="D162">
-            <v>3.3157001523961043</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="D163">
-            <v>2.127741161740019</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="D164">
-            <v>3.7067388361898139</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="D165">
-            <v>3.8053478946288806</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="D166">
-            <v>4.9590795635056679</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="D167">
-            <v>3.5549136256142191</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="D168">
-            <v>4.9130945390733984</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="D169">
-            <v>4.4812537552169971</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="D170">
-            <v>5.2089360442932389</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="D171">
-            <v>3.5741058856774828</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="D172">
-            <v>4.1400728443364017</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="D173">
-            <v>4.428071507341258</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="D174">
-            <v>4.8292620551918475</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="D175">
-            <v>5.6268597940872382</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="D176">
-            <v>4.8820725477712585</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="D177">
-            <v>4.4658919156701131</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="D178">
-            <v>4.6537984381627382</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="D179">
-            <v>2.7260805759664777</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="D180">
-            <v>2.1802547288707075</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="D181">
-            <v>4.5210567727538091</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="D182">
-            <v>4.7420663515606236</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="D183">
-            <v>5.2092432225171734</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="D184">
-            <v>4.807595213455059</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="D185">
-            <v>4.4029603349524677</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="D186">
-            <v>4.0609576201987636</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="D187">
-            <v>2.6368492455676176</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="D188">
-            <v>1.8373016887463223</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="D189">
-            <v>2.1258001590999953</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="D190">
-            <v>1.0888910853622917</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="D191">
-            <v>4.2970940830414861</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="D192">
-            <v>4.1665028410682936</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="D193">
-            <v>2.6274500455958361</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="D194">
-            <v>0.59618367523653149</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="D195">
-            <v>2.6896603907745629</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="D196">
-            <v>2.9465999866379491</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="D197">
-            <v>1.8158672852057123</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="D198">
-            <v>3.1901593640848631</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="D199">
-            <v>4.6925508418676429</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="D200">
-            <v>5.1622859847317812</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="D201">
-            <v>4.4573524257135659</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="D202">
-            <v>4.5413680097821043</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="D203">
-            <v>2.1419564224860466</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="D204">
-            <v>2.3436042930581777</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="D205">
-            <v>2.9984921877846489</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="D206">
-            <v>4.1050965290168762</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="D207">
-            <v>3.1555562491356142</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="D208">
-            <v>2.061287803962486</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="D209">
-            <v>2.8799610588884121</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="D210">
-            <v>1.6710736042641656</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="D211">
-            <v>1.6461267331684581</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="D212">
-            <v>2.01063617550723</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="D213">
-            <v>3.0114378154812727</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="D214">
-            <v>3.0920499332464573</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="D215">
-            <v>4.1934025337596097</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="D216">
-            <v>4.3499948505731538</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="D217">
-            <v>4.248329005386168</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="D218">
-            <v>3.8504750019456822</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="D219">
-            <v>3.6098383339814717</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="D220">
-            <v>3.0189062723809315</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="D221">
-            <v>3.9095355110815717</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="D222">
-            <v>3.6303895504815387</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="D223">
-            <v>2.0918136858971224</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="D224">
-            <v>3.5574282330961751</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="D225">
-            <v>4.178623864217073</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="D226">
-            <v>3.4592486835351508</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="D227">
-            <v>3.7463225576558727</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="D228">
-            <v>4.2251891918971864</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="D229">
-            <v>3.529609854745857</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="D230">
-            <v>4.0732215868169703</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="D231">
-            <v>3.3718048949026098</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="D232">
-            <v>4.6728634670545972</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="D233">
-            <v>4.1299676495144695</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="D234">
-            <v>4.8775851694773422</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="D235">
-            <v>4.3747105394002119</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="D236">
-            <v>4.2754382402271176</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="D237">
-            <v>2.3242144564045759</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="D238">
-            <v>-3.9922659226309918</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="D239">
-            <v>-9.5834786008983741</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="D240">
-            <v>-10.278554466368092</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="D241">
-            <v>-7.8750294641613721</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="D242">
-            <v>-3.8918368316501812</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="D243">
-            <v>-1.1139988517485477</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="D244">
-            <v>0.81724069095660923</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="D245">
-            <v>2.2552699317589742</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="D246">
-            <v>1.2752748601246253</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="D247">
-            <v>4.05151566127482</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="D248">
-            <v>1.3468354206584365</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="D249">
-            <v>2.3908293945689394</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="D250">
-            <v>9.9809551232631577</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="D251">
-            <v>15.451585372373785</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="D252">
-            <v>16.650644650611056</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="D253">
-            <v>14.530150871967365</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="D254">
-            <v>10.780014679471137</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="D255">
-            <v>7.7408159371974818</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="D256">
-            <v>5.9853826540215778</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="D257">
-            <v>4.5550917297126432</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="D258">
-            <v>6.2161648709837323</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="D259">
-            <v>4.0408408217402609</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="D260">
-            <v>4.6488489393268395</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="D261">
-            <v>4.460232666391903</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="D262">
-            <v>4.5660219334307897</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="D263">
-            <v>4.9121195922562322</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="D264">
-            <v>5.1517036448732512</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="D265">
-            <v>4.2700929525358617</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="D266">
-            <v>3.4712819083092086</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="D267">
-            <v>4.6690916905086368</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="D268">
-            <v>3.8240447786888012</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="D269">
-            <v>3.7019658404678069</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="D270">
-            <v>3.3240391890574301</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="D271">
-            <v>3.3490066225903945</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="D272">
-            <v>3.3696646121954501</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="D273">
-            <v>4.7776830378435449</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="D274">
-            <v>4.049305404546871</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="D275">
-            <v>3.5050520069987954</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="D276">
-            <v>3.9654051963730126</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="D277">
-            <v>5.2226827493224874</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="D278">
-            <v>5.0957292389945081</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="D279">
-            <v>3.6302218572122058</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="D280">
-            <v>3.4491317095298797</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="D281">
-            <v>1.1891050596867672</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="D282">
-            <v>2.3167245395495257</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="D283">
-            <v>2.0402487858685703</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="D284">
-            <v>3.8103868062635087</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="D285">
-            <v>2.7181686766855506</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="D286">
-            <v>2.1379658270330282</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="D287">
-            <v>4.1464980687573245</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="D288">
-            <v>4.5033555952203415</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="D289">
-            <v>2.536464817688497</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="D290">
-            <v>2.7620641291628374</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="D291">
-            <v>3.7494540740172795</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="D292">
-            <v>4.0474020818876966</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="D293">
-            <v>6.8127274031894842</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="D294">
-            <v>3.7218220263553121</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="D295">
-            <v>3.0216156833542556</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="D296">
-            <v>3.8220487065951545</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="D297">
-            <v>3.6012631133693844</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="D298">
-            <v>4.429391461025304</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="D299">
-            <v>3.9954915128858062</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="D300">
-            <v>4.0929520237190644</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="D301">
-            <v>3.5729226672914933</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="D302">
-            <v>4.2075132030203264</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="D303">
-            <v>3.4249597351453787</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="D304">
-            <v>4.5180150391356193</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1381,13 +590,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38932A4-4C0D-A241-8319-2A201A20008A}">
   <dimension ref="A1:M156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1428,7 +637,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -1468,11 +677,10 @@
         <v>98.850825527591795</v>
       </c>
       <c r="M2">
-        <f>D2*(L2/K2)</f>
-        <v>7.9618533168535697</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>70.290000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -1513,11 +721,10 @@
         <v>99.660416707655358</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="2">D3*(L3/K3)</f>
-        <v>7.9102240689124264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>69.540000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2013</v>
       </c>
@@ -1525,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C67" si="3">C3+1</f>
+        <f t="shared" ref="C4:C67" si="2">C3+1</f>
         <v>3</v>
       </c>
       <c r="D4">
@@ -1558,11 +765,10 @@
         <v>99.920979722659936</v>
       </c>
       <c r="M4">
-        <f t="shared" si="2"/>
-        <v>7.8741968438014114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>68.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -1570,7 +776,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D5">
@@ -1603,11 +809,10 @@
         <v>99.817097927551046</v>
       </c>
       <c r="M5">
-        <f t="shared" si="2"/>
-        <v>7.8398806328889918</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>68.83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>2013</v>
       </c>
@@ -1615,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D6">
@@ -1648,11 +853,10 @@
         <v>99.994813064638166</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
-        <v>7.8240240102096994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -1660,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D7">
@@ -1693,11 +897,10 @@
         <v>100.23477142606738</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
-        <v>7.8246854526254479</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>68.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -1705,7 +908,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D8">
@@ -1738,11 +941,10 @@
         <v>100.2742636787534</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
-        <v>7.8101063496049159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -1750,7 +952,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D9">
@@ -1783,11 +985,10 @@
         <v>100.39488675489225</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
-        <v>7.8835354711446639</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>68.66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -1795,7 +996,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="D10">
@@ -1828,11 +1029,10 @@
         <v>100.51164645848574</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
-        <v>7.9122564313622012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>68.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>2013</v>
       </c>
@@ -1840,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D11">
@@ -1873,11 +1073,10 @@
         <v>100.25280049794578</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
-        <v>7.9107566885959573</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -1885,7 +1084,7 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D12">
@@ -1918,11 +1117,10 @@
         <v>100.04804175304105</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
-        <v>7.7970589662793115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>68.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -1930,7 +1128,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="D13">
@@ -1963,11 +1161,10 @@
         <v>100.03945648071802</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
-        <v>7.7385771715638985</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <f>A2+1</f>
         <v>2014</v>
@@ -1976,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D14">
@@ -2001,28 +1198,27 @@
         <v>76.257229108122033</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:K77" si="4">I14/AVERAGE($I$2:$I$13)*100</f>
+        <f t="shared" ref="K14:K77" si="3">I14/AVERAGE($I$2:$I$13)*100</f>
         <v>101.85979548894382</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:L77" si="5">J14/AVERAGE($J$2:$J$13)*100</f>
+        <f t="shared" ref="L14:L77" si="4">J14/AVERAGE($J$2:$J$13)*100</f>
         <v>100.41162803592221</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
-        <v>7.7316270907004228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>68.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
-        <f t="shared" ref="A15:A78" si="6">A3+1</f>
+        <f t="shared" ref="A15:A78" si="5">A3+1</f>
         <v>2014</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D15">
@@ -2047,28 +1243,27 @@
         <v>76.539221375339864</v>
       </c>
       <c r="K15">
+        <f t="shared" si="3"/>
+        <v>102.06356823803017</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="4"/>
-        <v>102.06356823803017</v>
-      </c>
-      <c r="L15">
+        <v>100.7829410638941</v>
+      </c>
+      <c r="M15">
+        <v>67.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
         <f t="shared" si="5"/>
-        <v>100.7829410638941</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="2"/>
-        <v>7.6590333096385503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f t="shared" si="6"/>
         <v>2014</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D16">
@@ -2093,28 +1288,27 @@
         <v>77.032137338384203</v>
       </c>
       <c r="K16">
+        <f t="shared" si="3"/>
+        <v>102.29392004134516</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="4"/>
-        <v>102.29392004134516</v>
-      </c>
-      <c r="L16">
+        <v>101.43198765151664</v>
+      </c>
+      <c r="M16">
+        <v>67.040000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
         <f t="shared" si="5"/>
-        <v>101.43198765151664</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="2"/>
-        <v>7.6629381200115896</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" si="6"/>
         <v>2014</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="D17">
@@ -2139,28 +1333,27 @@
         <v>77.286093380190778</v>
       </c>
       <c r="K17">
+        <f t="shared" si="3"/>
+        <v>102.48883310568864</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="4"/>
-        <v>102.48883310568864</v>
-      </c>
-      <c r="L17">
+        <v>101.76638400849941</v>
+      </c>
+      <c r="M17">
+        <v>67.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
         <f t="shared" si="5"/>
-        <v>101.76638400849941</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="2"/>
-        <v>7.6928676118804118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f t="shared" si="6"/>
         <v>2014</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D18">
@@ -2185,28 +1378,27 @@
         <v>77.556023550429344</v>
       </c>
       <c r="K18">
+        <f t="shared" si="3"/>
+        <v>102.71918490900363</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="4"/>
-        <v>102.71918490900363</v>
-      </c>
-      <c r="L18">
+        <v>102.12181428267367</v>
+      </c>
+      <c r="M18">
+        <v>67.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
         <f t="shared" si="5"/>
-        <v>102.12181428267367</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="2"/>
-        <v>7.6913785975028484</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <f t="shared" si="6"/>
         <v>2014</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="D19">
@@ -2231,28 +1423,27 @@
         <v>77.700442711559404</v>
       </c>
       <c r="K19">
+        <f t="shared" si="3"/>
+        <v>103.26848536306245</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="4"/>
-        <v>103.26848536306245</v>
-      </c>
-      <c r="L19">
+        <v>102.31197806462922</v>
+      </c>
+      <c r="M19">
+        <v>67.66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
         <f t="shared" si="5"/>
-        <v>102.31197806462922</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="2"/>
-        <v>7.7331780763161682</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <f t="shared" si="6"/>
         <v>2014</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="D20">
@@ -2277,28 +1468,27 @@
         <v>77.670124467800733</v>
       </c>
       <c r="K20">
+        <f t="shared" si="3"/>
+        <v>103.86208424083574</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="4"/>
-        <v>103.86208424083574</v>
-      </c>
-      <c r="L20">
+        <v>102.27205654832704</v>
+      </c>
+      <c r="M20">
+        <v>67.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
         <f t="shared" si="5"/>
-        <v>102.27205654832704</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="2"/>
-        <v>7.6548399024484528</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <f t="shared" si="6"/>
         <v>2014</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D21">
@@ -2323,28 +1513,27 @@
         <v>77.540375424618418</v>
       </c>
       <c r="K21">
+        <f t="shared" si="3"/>
+        <v>104.29620879323708</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="4"/>
-        <v>104.29620879323708</v>
-      </c>
-      <c r="L21">
+        <v>102.10120962909835</v>
+      </c>
+      <c r="M21">
+        <v>66.94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
         <f t="shared" si="5"/>
-        <v>102.10120962909835</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="2"/>
-        <v>7.63831936352212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <f t="shared" si="6"/>
         <v>2014</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="D22">
@@ -2369,28 +1558,27 @@
         <v>77.598729893788359</v>
       </c>
       <c r="K22">
+        <f t="shared" si="3"/>
+        <v>104.34936690169438</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="4"/>
-        <v>104.34936690169438</v>
-      </c>
-      <c r="L22">
+        <v>102.17804781638966</v>
+      </c>
+      <c r="M22">
+        <v>65.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
         <f t="shared" si="5"/>
-        <v>102.17804781638966</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="2"/>
-        <v>7.5572850616724976</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <f t="shared" si="6"/>
         <v>2014</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="D23">
@@ -2415,28 +1603,27 @@
         <v>77.403780326393829</v>
       </c>
       <c r="K23">
+        <f t="shared" si="3"/>
+        <v>104.50884122706631</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="4"/>
-        <v>104.50884122706631</v>
-      </c>
-      <c r="L23">
+        <v>101.92134817393045</v>
+      </c>
+      <c r="M23">
+        <v>64.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
         <f t="shared" si="5"/>
-        <v>101.92134817393045</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="2"/>
-        <v>7.4494009053456374</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <f t="shared" si="6"/>
         <v>2014</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="D24">
@@ -2461,28 +1648,27 @@
         <v>76.98584496619354</v>
       </c>
       <c r="K24">
+        <f t="shared" si="3"/>
+        <v>104.71261397615264</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="4"/>
-        <v>104.71261397615264</v>
-      </c>
-      <c r="L24">
+        <v>101.37103221802299</v>
+      </c>
+      <c r="M24">
+        <v>64.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
         <f t="shared" si="5"/>
-        <v>101.37103221802299</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="2"/>
-        <v>7.3739945843849029</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <f t="shared" si="6"/>
         <v>2014</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="D25">
@@ -2507,28 +1693,27 @@
         <v>76.549327456592763</v>
       </c>
       <c r="K25">
+        <f t="shared" si="3"/>
+        <v>104.59743807449516</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="4"/>
-        <v>104.59743807449516</v>
-      </c>
-      <c r="L25">
+        <v>100.79624823599485</v>
+      </c>
+      <c r="M25">
+        <v>63.34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
         <f t="shared" si="5"/>
-        <v>100.79624823599485</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="2"/>
-        <v>7.3431335364534061</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
       <c r="C26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="D26">
@@ -2553,28 +1738,27 @@
         <v>76.189094560320271</v>
       </c>
       <c r="K26">
+        <f t="shared" si="3"/>
+        <v>104.22533131529401</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="4"/>
-        <v>104.22533131529401</v>
-      </c>
-      <c r="L26">
+        <v>100.32191194014635</v>
+      </c>
+      <c r="M26">
+        <v>63.28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
         <f t="shared" si="5"/>
-        <v>100.32191194014635</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="2"/>
-        <v>7.3543500270572961</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="D27">
@@ -2599,28 +1783,27 @@
         <v>76.51998722069726</v>
       </c>
       <c r="K27">
+        <f t="shared" si="3"/>
+        <v>104.55313965078075</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="4"/>
-        <v>104.55313965078075</v>
-      </c>
-      <c r="L27">
+        <v>100.7576145105411</v>
+      </c>
+      <c r="M27">
+        <v>62.96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
         <f t="shared" si="5"/>
-        <v>100.7576145105411</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="2"/>
-        <v>7.3642401126949499</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="D28">
@@ -2645,28 +1828,27 @@
         <v>76.975412882319588</v>
       </c>
       <c r="K28">
+        <f t="shared" si="3"/>
+        <v>104.77463176935287</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="4"/>
-        <v>104.77463176935287</v>
-      </c>
-      <c r="L28">
+        <v>101.35729578230612</v>
+      </c>
+      <c r="M28">
+        <v>62.38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
         <f t="shared" si="5"/>
-        <v>101.35729578230612</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="2"/>
-        <v>7.3778454972625047</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
       <c r="C29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="D29">
@@ -2691,28 +1873,27 @@
         <v>77.131894140428884</v>
       </c>
       <c r="K29">
+        <f t="shared" si="3"/>
+        <v>105.12901915906822</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="4"/>
-        <v>105.12901915906822</v>
-      </c>
-      <c r="L29">
+        <v>101.56334231805928</v>
+      </c>
+      <c r="M29">
+        <v>62.97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
         <f t="shared" si="5"/>
-        <v>101.56334231805928</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="2"/>
-        <v>7.4437311451925217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
       <c r="C30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="D30">
@@ -2737,28 +1918,27 @@
         <v>77.525053301428542</v>
       </c>
       <c r="K30">
+        <f t="shared" si="3"/>
+        <v>105.34165159289745</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="4"/>
-        <v>105.34165159289745</v>
-      </c>
-      <c r="L30">
+        <v>102.08103423913917</v>
+      </c>
+      <c r="M30">
+        <v>62.92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
         <f t="shared" si="5"/>
-        <v>102.08103423913917</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="2"/>
-        <v>7.4420209786249609</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B31" t="s">
         <v>19</v>
       </c>
       <c r="C31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="D31">
@@ -2783,28 +1963,27 @@
         <v>77.796613484772422</v>
       </c>
       <c r="K31">
+        <f t="shared" si="3"/>
+        <v>105.73147772158438</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="4"/>
-        <v>105.73147772158438</v>
-      </c>
-      <c r="L31">
+        <v>102.43861083139419</v>
+      </c>
+      <c r="M31">
+        <v>62.31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
         <f t="shared" si="5"/>
-        <v>102.43861083139419</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="2"/>
-        <v>7.4090865233453425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
       </c>
       <c r="C32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="D32">
@@ -2829,28 +2008,27 @@
         <v>77.801829526709398</v>
       </c>
       <c r="K32">
+        <f t="shared" si="3"/>
+        <v>106.27191849090035</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="4"/>
-        <v>106.27191849090035</v>
-      </c>
-      <c r="L32">
+        <v>102.44547904925263</v>
+      </c>
+      <c r="M32">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
         <f t="shared" si="5"/>
-        <v>102.44547904925263</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="2"/>
-        <v>7.372244417245037</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
       </c>
       <c r="C33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="D33">
@@ -2875,28 +2053,27 @@
         <v>77.691640640790752</v>
       </c>
       <c r="K33">
+        <f t="shared" si="3"/>
+        <v>106.34279596884342</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="4"/>
-        <v>106.34279596884342</v>
-      </c>
-      <c r="L33">
+        <v>102.3003879469931</v>
+      </c>
+      <c r="M33">
+        <v>61.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
         <f t="shared" si="5"/>
-        <v>102.3003879469931</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="2"/>
-        <v>7.3571323269479789</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="D34">
@@ -2921,28 +2098,27 @@
         <v>77.570693668377103</v>
       </c>
       <c r="K34">
+        <f t="shared" si="3"/>
+        <v>106.30735722987188</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="4"/>
-        <v>106.30735722987188</v>
-      </c>
-      <c r="L34">
+        <v>102.14113114540054</v>
+      </c>
+      <c r="M34">
+        <v>61.08</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
         <f t="shared" si="5"/>
-        <v>102.14113114540054</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="2"/>
-        <v>7.3865746233834866</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="D35">
@@ -2967,28 +2143,27 @@
         <v>77.535811387923559</v>
       </c>
       <c r="K35">
+        <f t="shared" si="3"/>
+        <v>106.83893831444496</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="4"/>
-        <v>106.83893831444496</v>
-      </c>
-      <c r="L35">
+        <v>102.09519993847221</v>
+      </c>
+      <c r="M35">
+        <v>61.07</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
         <f t="shared" si="5"/>
-        <v>102.09519993847221</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="2"/>
-        <v>7.3375633885868394</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="D36">
@@ -3013,28 +2188,27 @@
         <v>77.37215807215091</v>
       </c>
       <c r="K36">
+        <f t="shared" si="3"/>
+        <v>107.34394034478937</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="4"/>
-        <v>107.34394034478937</v>
-      </c>
-      <c r="L36">
+        <v>101.87970960316368</v>
+      </c>
+      <c r="M36">
+        <v>60.26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
         <f t="shared" si="5"/>
-        <v>101.87970960316368</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="2"/>
-        <v>7.2520618879047269</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <f t="shared" si="6"/>
         <v>2015</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="D37">
@@ -3059,28 +2233,27 @@
         <v>77.10776994647037</v>
       </c>
       <c r="K37">
+        <f t="shared" si="3"/>
+        <v>107.80464395141938</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="4"/>
-        <v>107.80464395141938</v>
-      </c>
-      <c r="L37">
+        <v>101.531576810464</v>
+      </c>
+      <c r="M37">
+        <v>59.51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
         <f t="shared" si="5"/>
-        <v>101.531576810464</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="2"/>
-        <v>7.1710792032669932</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
       <c r="C38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="D38">
@@ -3105,28 +2278,27 @@
         <v>77.235236971305255</v>
       </c>
       <c r="K38">
+        <f t="shared" si="3"/>
+        <v>108.78806895787956</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="4"/>
-        <v>108.78806895787956</v>
-      </c>
-      <c r="L38">
+        <v>101.69941888437964</v>
+      </c>
+      <c r="M38">
+        <v>58.93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
         <f t="shared" si="5"/>
-        <v>101.69941888437964</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="2"/>
-        <v>7.1510665572293313</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
       </c>
       <c r="C39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="D39">
@@ -3151,28 +2323,27 @@
         <v>77.298807482412158</v>
       </c>
       <c r="K39">
+        <f t="shared" si="3"/>
+        <v>109.01842076119455</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="4"/>
-        <v>109.01842076119455</v>
-      </c>
-      <c r="L39">
+        <v>101.78312528952935</v>
+      </c>
+      <c r="M39">
+        <v>58.99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
         <f t="shared" si="5"/>
-        <v>101.78312528952935</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="2"/>
-        <v>7.1543220632261102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="D40">
@@ -3197,28 +2368,27 @@
         <v>77.631656158515526</v>
       </c>
       <c r="K40">
+        <f t="shared" si="3"/>
+        <v>109.23991287976666</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="4"/>
-        <v>109.23991287976666</v>
-      </c>
-      <c r="L40">
+        <v>102.22140344162105</v>
+      </c>
+      <c r="M40">
+        <v>59.86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
         <f t="shared" si="5"/>
-        <v>102.22140344162105</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="2"/>
-        <v>7.2205105985632132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B41" t="s">
         <v>17</v>
       </c>
       <c r="C41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="D41">
@@ -3243,28 +2413,27 @@
         <v>77.99971311769346</v>
       </c>
       <c r="K41">
+        <f t="shared" si="3"/>
+        <v>109.42596625936724</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="4"/>
-        <v>109.42596625936724</v>
-      </c>
-      <c r="L41">
+        <v>102.70604206425718</v>
+      </c>
+      <c r="M41">
+        <v>60.35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42">
         <f t="shared" si="5"/>
-        <v>102.70604206425718</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="2"/>
-        <v>7.255675487679583</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
       </c>
       <c r="C42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="D42">
@@ -3289,28 +2458,27 @@
         <v>78.315283654880588</v>
       </c>
       <c r="K42">
+        <f t="shared" si="3"/>
+        <v>109.93096828971164</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="4"/>
-        <v>109.93096828971164</v>
-      </c>
-      <c r="L42">
+        <v>103.12156924469278</v>
+      </c>
+      <c r="M42">
+        <v>59.23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
         <f t="shared" si="5"/>
-        <v>103.12156924469278</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="2"/>
-        <v>7.1709524141229091</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B43" t="s">
         <v>19</v>
       </c>
       <c r="C43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="D43">
@@ -3335,28 +2503,27 @@
         <v>78.572499722897774</v>
       </c>
       <c r="K43">
+        <f t="shared" si="3"/>
+        <v>110.41825095057033</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="4"/>
-        <v>110.41825095057033</v>
-      </c>
-      <c r="L43">
+        <v>103.46025823783707</v>
+      </c>
+      <c r="M43">
+        <v>58.77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
         <f t="shared" si="5"/>
-        <v>103.46025823783707</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="2"/>
-        <v>7.1594517760926983</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
       </c>
       <c r="C44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="D44">
@@ -3381,28 +2548,27 @@
         <v>78.445358700683954</v>
       </c>
       <c r="K44">
+        <f t="shared" si="3"/>
+        <v>111.18018383845838</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="4"/>
-        <v>111.18018383845838</v>
-      </c>
-      <c r="L44">
+        <v>103.2928454275376</v>
+      </c>
+      <c r="M44">
+        <v>57.98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
         <f t="shared" si="5"/>
-        <v>103.2928454275376</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="2"/>
-        <v>7.0563538727887476</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
       </c>
       <c r="C45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="D45">
@@ -3427,28 +2593,27 @@
         <v>78.517405279938444</v>
       </c>
       <c r="K45">
+        <f t="shared" si="3"/>
+        <v>111.38395658754474</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="4"/>
-        <v>111.38395658754474</v>
-      </c>
-      <c r="L45">
+        <v>103.3877126867073</v>
+      </c>
+      <c r="M45">
+        <v>57.62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
         <f t="shared" si="5"/>
-        <v>103.3877126867073</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="2"/>
-        <v>6.9935200467598024</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B46" t="s">
         <v>22</v>
       </c>
       <c r="C46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="D46">
@@ -3473,28 +2638,27 @@
         <v>78.706160797532817</v>
       </c>
       <c r="K46">
+        <f t="shared" si="3"/>
+        <v>111.15360478422973</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="4"/>
-        <v>111.15360478422973</v>
-      </c>
-      <c r="L46">
+        <v>103.63625632045958</v>
+      </c>
+      <c r="M46">
+        <v>57.55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
         <f t="shared" si="5"/>
-        <v>103.63625632045958</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="2"/>
-        <v>7.0134902195227058</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B47" t="s">
         <v>23</v>
       </c>
       <c r="C47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="D47">
@@ -3519,28 +2683,27 @@
         <v>78.804287586472199</v>
       </c>
       <c r="K47">
+        <f t="shared" si="3"/>
+        <v>111.92439735686071</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="4"/>
-        <v>111.92439735686071</v>
-      </c>
-      <c r="L47">
+        <v>103.7654646689215</v>
+      </c>
+      <c r="M47">
+        <v>56.93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48">
         <f t="shared" si="5"/>
-        <v>103.7654646689215</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="2"/>
-        <v>6.9493753784353141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
       </c>
       <c r="C48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="D48">
@@ -3565,28 +2728,27 @@
         <v>78.681710600953238</v>
       </c>
       <c r="K48">
+        <f t="shared" si="3"/>
+        <v>112.35852190926204</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="4"/>
-        <v>112.35852190926204</v>
-      </c>
-      <c r="L48">
+        <v>103.60406154924817</v>
+      </c>
+      <c r="M48">
+        <v>56.22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49">
         <f t="shared" si="5"/>
-        <v>103.60406154924817</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="2"/>
-        <v>6.9194518512982226</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <f t="shared" si="6"/>
         <v>2016</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
       </c>
       <c r="C49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="D49">
@@ -3611,28 +2773,27 @@
         <v>78.70746480801705</v>
       </c>
       <c r="K49">
+        <f t="shared" si="3"/>
+        <v>112.36738159400493</v>
+      </c>
+      <c r="L49">
         <f t="shared" si="4"/>
-        <v>112.36738159400493</v>
-      </c>
-      <c r="L49">
+        <v>103.6379733749242</v>
+      </c>
+      <c r="M49">
+        <v>55.96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50">
         <f t="shared" si="5"/>
-        <v>103.6379733749242</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="2"/>
-        <v>6.9201333854267144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
       </c>
       <c r="C50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="D50">
@@ -3657,28 +2818,27 @@
         <v>79.16615049584999</v>
       </c>
       <c r="K50">
+        <f t="shared" si="3"/>
+        <v>112.9521207870353</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="4"/>
-        <v>112.9521207870353</v>
-      </c>
-      <c r="L50">
+        <v>104.24194728285075</v>
+      </c>
+      <c r="M50">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51">
         <f t="shared" si="5"/>
-        <v>104.24194728285075</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="2"/>
-        <v>6.9372197885435165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
       </c>
       <c r="C51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="D51">
@@ -3703,28 +2863,27 @@
         <v>79.415216498340655</v>
       </c>
       <c r="K51">
+        <f t="shared" si="3"/>
+        <v>113.33308723097934</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="4"/>
-        <v>113.33308723097934</v>
-      </c>
-      <c r="L51">
+        <v>104.56990468559124</v>
+      </c>
+      <c r="M51">
+        <v>55.38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52">
         <f t="shared" si="5"/>
-        <v>104.56990468559124</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="2"/>
-        <v>6.8299458707554876</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="D52">
@@ -3749,28 +2908,27 @@
         <v>79.47976501731074</v>
       </c>
       <c r="K52">
+        <f t="shared" si="3"/>
+        <v>113.60773745800874</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="4"/>
-        <v>113.60773745800874</v>
-      </c>
-      <c r="L52">
+        <v>104.6548988815894</v>
+      </c>
+      <c r="M52">
+        <v>55.21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53">
         <f t="shared" si="5"/>
-        <v>104.6548988815894</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="2"/>
-        <v>6.7756622189028164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B53" t="s">
         <v>17</v>
       </c>
       <c r="C53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="D53">
@@ -3795,28 +2953,27 @@
         <v>79.715464912337907</v>
       </c>
       <c r="K53">
+        <f t="shared" si="3"/>
+        <v>113.90010705452394</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="4"/>
-        <v>113.90010705452394</v>
-      </c>
-      <c r="L53">
+        <v>104.96525647606767</v>
+      </c>
+      <c r="M53">
+        <v>55.26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54">
         <f t="shared" si="5"/>
-        <v>104.96525647606767</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="2"/>
-        <v>6.7604058601121784</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
       </c>
       <c r="C54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="D54">
@@ -3841,28 +2998,27 @@
         <v>79.783599460139669</v>
       </c>
       <c r="K54">
+        <f t="shared" si="3"/>
+        <v>114.25449444423934</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="4"/>
-        <v>114.25449444423934</v>
-      </c>
-      <c r="L54">
+        <v>105.05497257184354</v>
+      </c>
+      <c r="M54">
+        <v>55.12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55">
         <f t="shared" si="5"/>
-        <v>105.05497257184354</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="2"/>
-        <v>6.7470315700556247</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
       </c>
       <c r="C55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="D55">
@@ -3887,28 +3043,27 @@
         <v>79.855972042015225</v>
       </c>
       <c r="K55">
+        <f t="shared" si="3"/>
+        <v>115.23791945069952</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="4"/>
-        <v>115.23791945069952</v>
-      </c>
-      <c r="L55">
+        <v>105.15026909462937</v>
+      </c>
+      <c r="M55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56">
         <f t="shared" si="5"/>
-        <v>105.15026909462937</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="2"/>
-        <v>6.6972322479619759</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
       </c>
       <c r="C56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="D56">
@@ -3933,28 +3088,27 @@
         <v>79.800877599055895</v>
       </c>
       <c r="K56">
+        <f t="shared" si="3"/>
+        <v>116.98327734504777</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="4"/>
-        <v>116.98327734504777</v>
-      </c>
-      <c r="L56">
+        <v>105.0777235434996</v>
+      </c>
+      <c r="M56">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57">
         <f t="shared" si="5"/>
-        <v>105.0777235434996</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="2"/>
-        <v>6.5565342160804851</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
       </c>
       <c r="C57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="D57">
@@ -3979,28 +3133,27 @@
         <v>80.039837520293673</v>
       </c>
       <c r="K57">
+        <f t="shared" si="3"/>
+        <v>116.63774964007527</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="4"/>
-        <v>116.63774964007527</v>
-      </c>
-      <c r="L57">
+        <v>105.39237377413937</v>
+      </c>
+      <c r="M57">
+        <v>54.47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58">
         <f t="shared" si="5"/>
-        <v>105.39237377413937</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="2"/>
-        <v>6.572566551278558</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B58" t="s">
         <v>22</v>
       </c>
       <c r="C58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="D58">
@@ -4025,28 +3178,27 @@
         <v>80.463640927673055</v>
       </c>
       <c r="K58">
+        <f t="shared" si="3"/>
+        <v>115.99985233858759</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="4"/>
-        <v>115.99985233858759</v>
-      </c>
-      <c r="L58">
+        <v>105.95041647513756</v>
+      </c>
+      <c r="M58">
+        <v>55.34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59">
         <f t="shared" si="5"/>
-        <v>105.95041647513756</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="2"/>
-        <v>6.6712038663904814</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B59" t="s">
         <v>23</v>
       </c>
       <c r="C59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="D59">
@@ -4071,28 +3223,27 @@
         <v>80.412784518787547</v>
       </c>
       <c r="K59">
+        <f t="shared" si="3"/>
+        <v>116.62888995533238</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="4"/>
-        <v>116.62888995533238</v>
-      </c>
-      <c r="L59">
+        <v>105.88345135101783</v>
+      </c>
+      <c r="M59">
+        <v>54.98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60">
         <f t="shared" si="5"/>
-        <v>105.88345135101783</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="2"/>
-        <v>6.664365859913306</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
       </c>
       <c r="C60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="D60">
@@ -4117,28 +3268,27 @@
         <v>80.414740534513911</v>
       </c>
       <c r="K60">
+        <f t="shared" si="3"/>
+        <v>117.63003433127837</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="4"/>
-        <v>117.63003433127837</v>
-      </c>
-      <c r="L60">
+        <v>105.88602693271471</v>
+      </c>
+      <c r="M60">
+        <v>54.47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61">
         <f t="shared" si="5"/>
-        <v>105.88602693271471</v>
-      </c>
-      <c r="M60">
-        <f t="shared" si="2"/>
-        <v>6.5979991861220002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <f t="shared" si="6"/>
         <v>2017</v>
       </c>
       <c r="B61" t="s">
         <v>25</v>
       </c>
       <c r="C61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="D61">
@@ -4163,28 +3313,27 @@
         <v>80.367470154460051</v>
       </c>
       <c r="K61">
+        <f t="shared" si="3"/>
+        <v>118.74635460888182</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="4"/>
-        <v>118.74635460888182</v>
-      </c>
-      <c r="L61">
+        <v>105.82378370837262</v>
+      </c>
+      <c r="M61">
+        <v>54.27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62">
         <f t="shared" si="5"/>
-        <v>105.82378370837262</v>
-      </c>
-      <c r="M61">
-        <f t="shared" si="2"/>
-        <v>6.5483049559052073</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
       </c>
       <c r="C62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="D62">
@@ -4209,28 +3358,27 @@
         <v>80.805291674545074</v>
       </c>
       <c r="K62">
+        <f t="shared" si="3"/>
+        <v>118.27679131750892</v>
+      </c>
+      <c r="L62">
         <f t="shared" si="4"/>
-        <v>118.27679131750892</v>
-      </c>
-      <c r="L62">
+        <v>106.40028474486539</v>
+      </c>
+      <c r="M62">
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63">
         <f t="shared" si="5"/>
-        <v>106.40028474486539</v>
-      </c>
-      <c r="M62">
-        <f t="shared" si="2"/>
-        <v>6.6045666426283516</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="D63">
@@ -4255,28 +3403,27 @@
         <v>81.171718620617725</v>
       </c>
       <c r="K63">
+        <f t="shared" si="3"/>
+        <v>118.03757982945102</v>
+      </c>
+      <c r="L63">
         <f t="shared" si="4"/>
-        <v>118.03757982945102</v>
-      </c>
-      <c r="L63">
+        <v>106.88277704942078</v>
+      </c>
+      <c r="M63">
+        <v>55.73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64">
         <f t="shared" si="5"/>
-        <v>106.88277704942078</v>
-      </c>
-      <c r="M63">
-        <f t="shared" si="2"/>
-        <v>6.6647586058859032</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="D64">
@@ -4301,28 +3448,27 @@
         <v>81.355258096275108</v>
       </c>
       <c r="K64">
+        <f t="shared" si="3"/>
+        <v>118.31223005648044</v>
+      </c>
+      <c r="L64">
         <f t="shared" si="4"/>
-        <v>118.31223005648044</v>
-      </c>
-      <c r="L64">
+        <v>107.12445246531462</v>
+      </c>
+      <c r="M64">
+        <v>55.85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65">
         <f t="shared" si="5"/>
-        <v>107.12445246531462</v>
-      </c>
-      <c r="M64">
-        <f t="shared" si="2"/>
-        <v>6.6935041822529406</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B65" t="s">
         <v>17</v>
       </c>
       <c r="C65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="D65">
@@ -4347,28 +3493,27 @@
         <v>81.678652696367678</v>
       </c>
       <c r="K65">
+        <f t="shared" si="3"/>
+        <v>118.36538816493776</v>
+      </c>
+      <c r="L65">
         <f t="shared" si="4"/>
-        <v>118.36538816493776</v>
-      </c>
-      <c r="L65">
+        <v>107.55028197253785</v>
+      </c>
+      <c r="M65">
+        <v>56.14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66">
         <f t="shared" si="5"/>
-        <v>107.55028197253785</v>
-      </c>
-      <c r="M65">
-        <f t="shared" si="2"/>
-        <v>6.7253165569827509</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B66" t="s">
         <v>18</v>
       </c>
       <c r="C66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="D66">
@@ -4393,28 +3538,27 @@
         <v>82.018347427513319</v>
       </c>
       <c r="K66">
+        <f t="shared" si="3"/>
+        <v>118.92354830373948</v>
+      </c>
+      <c r="L66">
         <f t="shared" si="4"/>
-        <v>118.92354830373948</v>
-      </c>
-      <c r="L66">
+        <v>107.99757466056874</v>
+      </c>
+      <c r="M66">
+        <v>55.52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67">
         <f t="shared" si="5"/>
-        <v>107.99757466056874</v>
-      </c>
-      <c r="M66">
-        <f t="shared" si="2"/>
-        <v>6.7594366211341956</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
       </c>
       <c r="C67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="D67">
@@ -4439,28 +3583,27 @@
         <v>82.149074478558816</v>
       </c>
       <c r="K67">
+        <f t="shared" si="3"/>
+        <v>119.60574402894161</v>
+      </c>
+      <c r="L67">
         <f t="shared" si="4"/>
-        <v>119.60574402894161</v>
-      </c>
-      <c r="L67">
+        <v>108.16970937064588</v>
+      </c>
+      <c r="M67">
+        <v>55.17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68">
         <f t="shared" si="5"/>
-        <v>108.16970937064588</v>
-      </c>
-      <c r="M67">
-        <f t="shared" ref="M67:M130" si="7">D67*(L67/K67)</f>
-        <v>6.7686658138721807</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B68" t="s">
         <v>20</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C131" si="8">C67+1</f>
+        <f t="shared" ref="C68:C131" si="6">C67+1</f>
         <v>67</v>
       </c>
       <c r="D68">
@@ -4485,28 +3628,27 @@
         <v>82.154616523116843</v>
       </c>
       <c r="K68">
+        <f t="shared" si="3"/>
+        <v>120.03100889660006</v>
+      </c>
+      <c r="L68">
         <f t="shared" si="4"/>
-        <v>120.03100889660006</v>
-      </c>
-      <c r="L68">
+        <v>108.17700685212046</v>
+      </c>
+      <c r="M68">
+        <v>55.12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69">
         <f t="shared" si="5"/>
-        <v>108.17700685212046</v>
-      </c>
-      <c r="M68">
-        <f t="shared" si="7"/>
-        <v>6.7432426163388062</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
       </c>
       <c r="C69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D69">
@@ -4531,28 +3673,27 @@
         <v>82.20025689006539</v>
       </c>
       <c r="K69">
+        <f t="shared" si="3"/>
+        <v>120.56258998117315</v>
+      </c>
+      <c r="L69">
         <f t="shared" si="4"/>
-        <v>120.56258998117315</v>
-      </c>
-      <c r="L69">
+        <v>108.23710375838181</v>
+      </c>
+      <c r="M69">
+        <v>55.11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70">
         <f t="shared" si="5"/>
-        <v>108.23710375838181</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="7"/>
-        <v>6.7398773379079788</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
       </c>
       <c r="C70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="D70">
@@ -4577,28 +3718,27 @@
         <v>82.295775658036291</v>
       </c>
       <c r="K70">
+        <f t="shared" si="3"/>
+        <v>121.28022444534676</v>
+      </c>
+      <c r="L70">
         <f t="shared" si="4"/>
-        <v>121.28022444534676</v>
-      </c>
-      <c r="L70">
+        <v>108.36287799791448</v>
+      </c>
+      <c r="M70">
+        <v>55.92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71">
         <f t="shared" si="5"/>
-        <v>108.36287799791448</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="7"/>
-        <v>6.8483148187458029</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B71" t="s">
         <v>23</v>
       </c>
       <c r="C71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="D71">
@@ -4623,28 +3763,27 @@
         <v>82.441172827029533</v>
       </c>
       <c r="K71">
+        <f t="shared" si="3"/>
+        <v>121.68776994351948</v>
+      </c>
+      <c r="L71">
         <f t="shared" si="4"/>
-        <v>121.68776994351948</v>
-      </c>
-      <c r="L71">
+        <v>108.55432957071849</v>
+      </c>
+      <c r="M71">
+        <v>56.18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72">
         <f t="shared" si="5"/>
-        <v>108.55432957071849</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="7"/>
-        <v>6.8898516299725188</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B72" t="s">
         <v>24</v>
       </c>
       <c r="C72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="D72">
@@ -4669,28 +3808,27 @@
         <v>82.165048606990808</v>
       </c>
       <c r="K72">
+        <f t="shared" si="3"/>
+        <v>121.33338255380409</v>
+      </c>
+      <c r="L72">
         <f t="shared" si="4"/>
-        <v>121.33338255380409</v>
-      </c>
-      <c r="L72">
+        <v>108.19074328783735</v>
+      </c>
+      <c r="M72">
+        <v>55.58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73">
         <f t="shared" si="5"/>
-        <v>108.19074328783735</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="7"/>
-        <v>6.8634113969617072</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <f t="shared" si="6"/>
         <v>2018</v>
       </c>
       <c r="B73" t="s">
         <v>25</v>
       </c>
       <c r="C73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="D73">
@@ -4715,28 +3853,27 @@
         <v>81.902616497036632</v>
       </c>
       <c r="K73">
+        <f t="shared" si="3"/>
+        <v>121.49285687917603</v>
+      </c>
+      <c r="L73">
         <f t="shared" si="4"/>
-        <v>121.49285687917603</v>
-      </c>
-      <c r="L73">
+        <v>107.84518607683459</v>
+      </c>
+      <c r="M73">
+        <v>55.86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74">
         <f t="shared" si="5"/>
-        <v>107.84518607683459</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="7"/>
-        <v>6.6745093511788287</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B74" t="s">
         <v>0</v>
       </c>
       <c r="C74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>73</v>
       </c>
       <c r="D74">
@@ -4761,28 +3898,27 @@
         <v>82.058771752524891</v>
       </c>
       <c r="K74">
+        <f t="shared" si="3"/>
+        <v>123.13189855660967</v>
+      </c>
+      <c r="L74">
         <f t="shared" si="4"/>
-        <v>123.13189855660967</v>
-      </c>
-      <c r="L74">
+        <v>108.05080334897164</v>
+      </c>
+      <c r="M74">
+        <v>55.46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75">
         <f t="shared" si="5"/>
-        <v>108.05080334897164</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="7"/>
-        <v>6.7832183103023294</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
       </c>
       <c r="C75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="D75">
@@ -4807,28 +3943,27 @@
         <v>82.405638541333886</v>
       </c>
       <c r="K75">
+        <f t="shared" si="3"/>
+        <v>123.30023256672445</v>
+      </c>
+      <c r="L75">
         <f t="shared" si="4"/>
-        <v>123.30023256672445</v>
-      </c>
-      <c r="L75">
+        <v>108.50753983655788</v>
+      </c>
+      <c r="M75">
+        <v>55.58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76">
         <f t="shared" si="5"/>
-        <v>108.50753983655788</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="7"/>
-        <v>6.8036079213422402</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
       </c>
       <c r="C76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="D76">
@@ -4853,28 +3988,27 @@
         <v>82.870518278966969</v>
       </c>
       <c r="K76">
+        <f t="shared" si="3"/>
+        <v>123.24707445826719</v>
+      </c>
+      <c r="L76">
         <f t="shared" si="4"/>
-        <v>123.24707445826719</v>
-      </c>
-      <c r="L76">
+        <v>109.11966975319129</v>
+      </c>
+      <c r="M76">
+        <v>55.44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77">
         <f t="shared" si="5"/>
-        <v>109.11966975319129</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="7"/>
-        <v>6.8063338501539681</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B77" t="s">
         <v>17</v>
       </c>
       <c r="C77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="D77">
@@ -4899,28 +4033,27 @@
         <v>83.309317806915175</v>
       </c>
       <c r="K77">
+        <f t="shared" si="3"/>
+        <v>123.99128797666945</v>
+      </c>
+      <c r="L77">
         <f t="shared" si="4"/>
-        <v>123.99128797666945</v>
-      </c>
-      <c r="L77">
+        <v>109.69745858053255</v>
+      </c>
+      <c r="M77">
+        <v>55.01</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78">
         <f t="shared" si="5"/>
-        <v>109.69745858053255</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="7"/>
-        <v>6.7615496390200889</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <f t="shared" si="6"/>
         <v>2019</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
       </c>
       <c r="C78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>77</v>
       </c>
       <c r="D78">
@@ -4945,28 +4078,27 @@
         <v>83.486663232772386</v>
       </c>
       <c r="K78">
-        <f t="shared" ref="K78:K141" si="9">I78/AVERAGE($I$2:$I$13)*100</f>
+        <f t="shared" ref="K78:K141" si="7">I78/AVERAGE($I$2:$I$13)*100</f>
         <v>124.31909631215619</v>
       </c>
       <c r="L78">
-        <f t="shared" ref="L78:L141" si="10">J78/AVERAGE($J$2:$J$13)*100</f>
+        <f t="shared" ref="L78:L141" si="8">J78/AVERAGE($J$2:$J$13)*100</f>
         <v>109.93097798771947</v>
       </c>
       <c r="M78">
-        <f t="shared" si="7"/>
-        <v>6.7828269011112319</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79">
-        <f t="shared" ref="A79:A142" si="11">A67+1</f>
+        <f t="shared" ref="A79:A142" si="9">A67+1</f>
         <v>2019</v>
       </c>
       <c r="B79" t="s">
         <v>19</v>
       </c>
       <c r="C79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="D79">
@@ -4991,28 +4123,27 @@
         <v>83.503289366446495</v>
       </c>
       <c r="K79">
+        <f t="shared" si="7"/>
+        <v>125.34681974233079</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="8"/>
+        <v>109.95287043214323</v>
+      </c>
+      <c r="M79">
+        <v>54.71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80">
         <f t="shared" si="9"/>
-        <v>125.34681974233079</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="10"/>
-        <v>109.95287043214323</v>
-      </c>
-      <c r="M79">
-        <f t="shared" si="7"/>
-        <v>6.7561152295172873</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
       </c>
       <c r="C80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
       <c r="D80">
@@ -5037,28 +4168,27 @@
         <v>83.642818488260659</v>
       </c>
       <c r="K80">
+        <f t="shared" si="7"/>
+        <v>125.27594226438774</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="8"/>
+        <v>110.13659525985653</v>
+      </c>
+      <c r="M80">
+        <v>54.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81">
         <f t="shared" si="9"/>
-        <v>125.27594226438774</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="10"/>
-        <v>110.13659525985653</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="7"/>
-        <v>6.7449552505363775</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
       <c r="B81" t="s">
         <v>21</v>
       </c>
       <c r="C81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="D81">
@@ -5083,28 +4213,27 @@
         <v>83.638580454186851</v>
       </c>
       <c r="K81">
+        <f t="shared" si="7"/>
+        <v>124.19506072575581</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="8"/>
+        <v>110.13101483284653</v>
+      </c>
+      <c r="M81">
+        <v>54.85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82">
         <f t="shared" si="9"/>
-        <v>124.19506072575581</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="10"/>
-        <v>110.13101483284653</v>
-      </c>
-      <c r="M81">
-        <f t="shared" si="7"/>
-        <v>6.8012552349009834</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
       <c r="B82" t="s">
         <v>22</v>
       </c>
       <c r="C82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
       <c r="D82">
@@ -5129,28 +4258,27 @@
         <v>83.704106981020132</v>
       </c>
       <c r="K82">
+        <f t="shared" si="7"/>
+        <v>123.46856657683929</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="8"/>
+        <v>110.21729681969319</v>
+      </c>
+      <c r="M82">
+        <v>55.39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83">
         <f t="shared" si="9"/>
-        <v>123.46856657683929</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="10"/>
-        <v>110.21729681969319</v>
-      </c>
-      <c r="M82">
-        <f t="shared" si="7"/>
-        <v>6.8822293020066638</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="D83">
@@ -5175,28 +4303,27 @@
         <v>83.895470519582972</v>
       </c>
       <c r="K83">
+        <f t="shared" si="7"/>
+        <v>124.32795599689909</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="8"/>
+        <v>110.46927456237468</v>
+      </c>
+      <c r="M83">
+        <v>55.59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84">
         <f t="shared" si="9"/>
-        <v>124.32795599689909</v>
-      </c>
-      <c r="L83">
-        <f t="shared" si="10"/>
-        <v>110.46927456237468</v>
-      </c>
-      <c r="M83">
-        <f t="shared" si="7"/>
-        <v>6.8907820021687156</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
       <c r="B84" t="s">
         <v>24</v>
       </c>
       <c r="C84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="D84">
@@ -5221,28 +4348,27 @@
         <v>83.85048215787657</v>
       </c>
       <c r="K84">
+        <f t="shared" si="7"/>
+        <v>124.8772564509579</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="8"/>
+        <v>110.41003618334567</v>
+      </c>
+      <c r="M84">
+        <v>55.17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85">
         <f t="shared" si="9"/>
-        <v>124.8772564509579</v>
-      </c>
-      <c r="L84">
-        <f t="shared" si="10"/>
-        <v>110.41003618334567</v>
-      </c>
-      <c r="M84">
-        <f t="shared" si="7"/>
-        <v>6.8100961793939589</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <f t="shared" si="11"/>
         <v>2019</v>
       </c>
       <c r="B85" t="s">
         <v>25</v>
       </c>
       <c r="C85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="D85">
@@ -5267,28 +4393,27 @@
         <v>83.774197544548258</v>
       </c>
       <c r="K85">
+        <f t="shared" si="7"/>
+        <v>125.63032965410312</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="8"/>
+        <v>110.30958849716595</v>
+      </c>
+      <c r="M85">
+        <v>54.98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86">
         <f t="shared" si="9"/>
-        <v>125.63032965410312</v>
-      </c>
-      <c r="L85">
-        <f t="shared" si="10"/>
-        <v>110.30958849716595</v>
-      </c>
-      <c r="M85">
-        <f t="shared" si="7"/>
-        <v>6.7498174914697717</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <f t="shared" si="11"/>
         <v>2020</v>
       </c>
       <c r="B86" t="s">
         <v>0</v>
       </c>
       <c r="C86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
       <c r="D86">
@@ -5313,28 +4438,27 @@
         <v>84.099222157746155</v>
       </c>
       <c r="K86">
+        <f t="shared" si="7"/>
+        <v>125.32910037284506</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="8"/>
+        <v>110.73756432246998</v>
+      </c>
+      <c r="M86">
+        <v>55.44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87">
         <f t="shared" si="9"/>
-        <v>125.32910037284506</v>
-      </c>
-      <c r="L86">
-        <f t="shared" si="10"/>
-        <v>110.73756432246998</v>
-      </c>
-      <c r="M86">
-        <f t="shared" si="7"/>
-        <v>6.7950083924426687</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <f t="shared" si="11"/>
         <v>2020</v>
       </c>
       <c r="B87" t="s">
         <v>15</v>
       </c>
       <c r="C87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
       <c r="D87">
@@ -5359,28 +4483,27 @@
         <v>84.329706010836333</v>
       </c>
       <c r="K87">
+        <f t="shared" si="7"/>
+        <v>124.82409834250059</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="8"/>
+        <v>111.04105369908979</v>
+      </c>
+      <c r="M87">
+        <v>55.24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88">
         <f t="shared" si="9"/>
-        <v>124.82409834250059</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="10"/>
-        <v>111.04105369908979</v>
-      </c>
-      <c r="M87">
-        <f t="shared" si="7"/>
-        <v>6.8028159461547633</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <f t="shared" si="11"/>
         <v>2020</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
       </c>
       <c r="C88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
       <c r="D88">
@@ -5405,28 +4528,27 @@
         <v>84.146166535178949</v>
       </c>
       <c r="K88">
+        <f t="shared" si="7"/>
+        <v>125.42655690501677</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="8"/>
+        <v>110.79937828319595</v>
+      </c>
+      <c r="M88">
+        <v>54.08</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89">
         <f t="shared" si="9"/>
-        <v>125.42655690501677</v>
-      </c>
-      <c r="L88">
-        <f t="shared" si="10"/>
-        <v>110.79937828319595</v>
-      </c>
-      <c r="M88">
-        <f t="shared" si="7"/>
-        <v>6.7935275414592153</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <f t="shared" si="11"/>
         <v>2020</v>
       </c>
       <c r="B89" t="s">
         <v>17</v>
       </c>
       <c r="C89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="D89">
@@ -5451,28 +4573,27 @@
         <v>83.583486011227535</v>
       </c>
       <c r="K89">
+        <f t="shared" si="7"/>
+        <v>126.32138506404812</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="8"/>
+        <v>110.05846928171677</v>
+      </c>
+      <c r="M89">
+        <v>52.77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90">
         <f t="shared" si="9"/>
-        <v>126.32138506404812</v>
-      </c>
-      <c r="L89">
-        <f t="shared" si="10"/>
-        <v>110.05846928171677</v>
-      </c>
-      <c r="M89">
-        <f t="shared" si="7"/>
-        <v>6.7163028204046462</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <f t="shared" si="11"/>
         <v>2020</v>
       </c>
       <c r="B90" t="s">
         <v>18</v>
       </c>
       <c r="C90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="D90">
@@ -5497,28 +4618,27 @@
         <v>83.585116024332848</v>
       </c>
       <c r="K90">
+        <f t="shared" si="7"/>
+        <v>126.56059655210599</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="8"/>
+        <v>110.06061559979754</v>
+      </c>
+      <c r="M90">
+        <v>52.66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91">
         <f t="shared" si="9"/>
-        <v>126.56059655210599</v>
-      </c>
-      <c r="L90">
-        <f t="shared" si="10"/>
-        <v>110.06061559979754</v>
-      </c>
-      <c r="M90">
-        <f t="shared" si="7"/>
-        <v>6.691777373896973</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <f t="shared" si="11"/>
         <v>2020</v>
       </c>
       <c r="B91" t="s">
         <v>19</v>
       </c>
       <c r="C91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="D91">
@@ -5543,28 +4663,27 @@
         <v>84.04249770168154</v>
       </c>
       <c r="K91">
+        <f t="shared" si="7"/>
+        <v>128.3413931854258</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="8"/>
+        <v>110.66287245325948</v>
+      </c>
+      <c r="M91">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92">
         <f t="shared" si="9"/>
-        <v>128.3413931854258</v>
-      </c>
-      <c r="L91">
-        <f t="shared" si="10"/>
-        <v>110.66287245325948</v>
-      </c>
-      <c r="M91">
-        <f t="shared" si="7"/>
-        <v>6.6376351722219891</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <f t="shared" si="11"/>
         <v>2020</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
       </c>
       <c r="C92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="D92">
@@ -5589,28 +4708,27 @@
         <v>84.467605119545155</v>
       </c>
       <c r="K92">
+        <f t="shared" si="7"/>
+        <v>128.88183395474172</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="8"/>
+        <v>111.22263220872226</v>
+      </c>
+      <c r="M92">
+        <v>52.68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93">
         <f t="shared" si="9"/>
-        <v>128.88183395474172</v>
-      </c>
-      <c r="L92">
-        <f t="shared" si="10"/>
-        <v>111.22263220872226</v>
-      </c>
-      <c r="M92">
-        <f t="shared" si="7"/>
-        <v>6.6414016971782059</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <f t="shared" si="11"/>
         <v>2020</v>
       </c>
       <c r="B93" t="s">
         <v>21</v>
       </c>
       <c r="C93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="D93">
@@ -5635,28 +4753,27 @@
         <v>84.733949260952059</v>
       </c>
       <c r="K93">
+        <f t="shared" si="7"/>
+        <v>129.39569566982908</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="8"/>
+        <v>111.57334058311885</v>
+      </c>
+      <c r="M93">
+        <v>52.83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94">
         <f t="shared" si="9"/>
-        <v>129.39569566982908</v>
-      </c>
-      <c r="L93">
-        <f t="shared" si="10"/>
-        <v>111.57334058311885</v>
-      </c>
-      <c r="M93">
-        <f t="shared" si="7"/>
-        <v>6.643633100327281</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <f t="shared" si="11"/>
         <v>2020</v>
       </c>
       <c r="B94" t="s">
         <v>22</v>
       </c>
       <c r="C94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="D94">
@@ -5681,28 +4798,27 @@
         <v>84.851962209776161</v>
       </c>
       <c r="K94">
+        <f t="shared" si="7"/>
+        <v>129.59946841891539</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="8"/>
+        <v>111.72873401216603</v>
+      </c>
+      <c r="M94">
+        <v>53.43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95">
         <f t="shared" si="9"/>
-        <v>129.59946841891539</v>
-      </c>
-      <c r="L94">
-        <f t="shared" si="10"/>
-        <v>111.72873401216603</v>
-      </c>
-      <c r="M94">
-        <f t="shared" si="7"/>
-        <v>6.6904319694845515</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <f t="shared" si="11"/>
         <v>2020</v>
       </c>
       <c r="B95" t="s">
         <v>23</v>
       </c>
       <c r="C95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>94</v>
       </c>
       <c r="D95">
@@ -5727,28 +4843,27 @@
         <v>84.887170492850771</v>
       </c>
       <c r="K95">
+        <f t="shared" si="7"/>
+        <v>130.97271955406251</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="8"/>
+        <v>111.77509448271053</v>
+      </c>
+      <c r="M95">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96">
         <f t="shared" si="9"/>
-        <v>130.97271955406251</v>
-      </c>
-      <c r="L95">
-        <f t="shared" si="10"/>
-        <v>111.77509448271053</v>
-      </c>
-      <c r="M95">
-        <f t="shared" si="7"/>
-        <v>6.6406059255695826</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <f t="shared" si="11"/>
         <v>2020</v>
       </c>
       <c r="B96" t="s">
         <v>24</v>
       </c>
       <c r="C96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
       <c r="D96">
@@ -5773,28 +4888,27 @@
         <v>84.835336076102053</v>
       </c>
       <c r="K96">
+        <f t="shared" si="7"/>
+        <v>131.69921370297902</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="8"/>
+        <v>111.70684156774226</v>
+      </c>
+      <c r="M96">
+        <v>53.38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97">
         <f t="shared" si="9"/>
-        <v>131.69921370297902</v>
-      </c>
-      <c r="L96">
-        <f t="shared" si="10"/>
-        <v>111.70684156774226</v>
-      </c>
-      <c r="M96">
-        <f t="shared" si="7"/>
-        <v>6.6055313115121752</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <f t="shared" si="11"/>
         <v>2020</v>
       </c>
       <c r="B97" t="s">
         <v>25</v>
       </c>
       <c r="C97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="D97">
@@ -5819,28 +4933,27 @@
         <v>84.915206718262013</v>
       </c>
       <c r="K97">
+        <f t="shared" si="7"/>
+        <v>131.69035401823615</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="8"/>
+        <v>111.81201115369961</v>
+      </c>
+      <c r="M97">
+        <v>54.17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98">
         <f t="shared" si="9"/>
-        <v>131.69035401823615</v>
-      </c>
-      <c r="L97">
-        <f t="shared" si="10"/>
-        <v>111.81201115369961</v>
-      </c>
-      <c r="M97">
-        <f t="shared" si="7"/>
-        <v>6.6225450421163776</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
       <c r="B98" t="s">
         <v>0</v>
       </c>
       <c r="C98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
       <c r="D98">
@@ -5865,28 +4978,27 @@
         <v>85.276417622397688</v>
       </c>
       <c r="K98">
+        <f t="shared" si="7"/>
+        <v>131.89412676732252</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="8"/>
+        <v>112.28763524039655</v>
+      </c>
+      <c r="M98">
+        <v>54.43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99">
         <f t="shared" si="9"/>
-        <v>131.89412676732252</v>
-      </c>
-      <c r="L98">
-        <f t="shared" si="10"/>
-        <v>112.28763524039655</v>
-      </c>
-      <c r="M98">
-        <f t="shared" si="7"/>
-        <v>6.6308716067789932</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
       <c r="B99" t="s">
         <v>15</v>
       </c>
       <c r="C99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="D99">
@@ -5911,28 +5023,27 @@
         <v>85.743253375757149</v>
       </c>
       <c r="K99">
+        <f t="shared" si="7"/>
+        <v>132.31053195023807</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="8"/>
+        <v>112.90234073872692</v>
+      </c>
+      <c r="M99">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100">
         <f t="shared" si="9"/>
-        <v>132.31053195023807</v>
-      </c>
-      <c r="L99">
-        <f t="shared" si="10"/>
-        <v>112.90234073872692</v>
-      </c>
-      <c r="M99">
-        <f t="shared" si="7"/>
-        <v>6.6051529030143348</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
       </c>
       <c r="C100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="D100">
@@ -5957,28 +5068,27 @@
         <v>86.350596258793928</v>
       </c>
       <c r="K100">
+        <f t="shared" si="7"/>
+        <v>132.7535161873823</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="8"/>
+        <v>113.70205885561897</v>
+      </c>
+      <c r="M100">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101">
         <f t="shared" si="9"/>
-        <v>132.7535161873823</v>
-      </c>
-      <c r="L100">
-        <f t="shared" si="10"/>
-        <v>113.70205885561897</v>
-      </c>
-      <c r="M100">
-        <f t="shared" si="7"/>
-        <v>6.611970031040757</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
       <c r="B101" t="s">
         <v>17</v>
       </c>
       <c r="C101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="D101">
@@ -6003,28 +5113,27 @@
         <v>87.060303964843882</v>
       </c>
       <c r="K101">
+        <f t="shared" si="7"/>
+        <v>132.89527114326845</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="8"/>
+        <v>114.63656574798291</v>
+      </c>
+      <c r="M101">
+        <v>53.97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102">
         <f t="shared" si="9"/>
-        <v>132.89527114326845</v>
-      </c>
-      <c r="L101">
-        <f t="shared" si="10"/>
-        <v>114.63656574798291</v>
-      </c>
-      <c r="M101">
-        <f t="shared" si="7"/>
-        <v>6.6555148274210536</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
       <c r="B102" t="s">
         <v>18</v>
       </c>
       <c r="C102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>101</v>
       </c>
       <c r="D102">
@@ -6049,28 +5158,27 @@
         <v>87.758275576535638</v>
       </c>
       <c r="K102">
+        <f t="shared" si="7"/>
+        <v>133.10790357709769</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="8"/>
+        <v>115.55561915016534</v>
+      </c>
+      <c r="M102">
+        <v>54.22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103">
         <f t="shared" si="9"/>
-        <v>133.10790357709769</v>
-      </c>
-      <c r="L102">
-        <f t="shared" si="10"/>
-        <v>115.55561915016534</v>
-      </c>
-      <c r="M102">
-        <f t="shared" si="7"/>
-        <v>6.6963022724137966</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
       <c r="B103" t="s">
         <v>19</v>
       </c>
       <c r="C103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
       <c r="D103">
@@ -6095,28 +5203,27 @@
         <v>88.573608131809394</v>
       </c>
       <c r="K103">
+        <f t="shared" si="7"/>
+        <v>133.35597474989845</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="8"/>
+        <v>116.6292074541627</v>
+      </c>
+      <c r="M103">
+        <v>54.54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104">
         <f t="shared" si="9"/>
-        <v>133.35597474989845</v>
-      </c>
-      <c r="L103">
-        <f t="shared" si="10"/>
-        <v>116.6292074541627</v>
-      </c>
-      <c r="M103">
-        <f t="shared" si="7"/>
-        <v>6.7674312464731567</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
       </c>
       <c r="C104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>103</v>
       </c>
       <c r="D104">
@@ -6141,28 +5248,27 @@
         <v>88.999693557536204</v>
       </c>
       <c r="K104">
+        <f t="shared" si="7"/>
+        <v>133.79895898704268</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="8"/>
+        <v>117.19025500047397</v>
+      </c>
+      <c r="M104">
+        <v>54.46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105">
         <f t="shared" si="9"/>
-        <v>133.79895898704268</v>
-      </c>
-      <c r="L104">
-        <f t="shared" si="10"/>
-        <v>117.19025500047397</v>
-      </c>
-      <c r="M104">
-        <f t="shared" si="7"/>
-        <v>6.7827978839748102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
       <c r="B105" t="s">
         <v>21</v>
       </c>
       <c r="C105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>104</v>
       </c>
       <c r="D105">
@@ -6187,28 +5293,27 @@
         <v>89.183559035814653</v>
       </c>
       <c r="K105">
+        <f t="shared" si="7"/>
+        <v>134.07360921407212</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="8"/>
+        <v>117.43235967998397</v>
+      </c>
+      <c r="M105">
+        <v>54.36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106">
         <f t="shared" si="9"/>
-        <v>134.07360921407212</v>
-      </c>
-      <c r="L105">
-        <f t="shared" si="10"/>
-        <v>117.43235967998397</v>
-      </c>
-      <c r="M105">
-        <f t="shared" si="7"/>
-        <v>6.7760860482907006</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
       <c r="B106" t="s">
         <v>22</v>
       </c>
       <c r="C106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>105</v>
       </c>
       <c r="D106">
@@ -6233,28 +5338,27 @@
         <v>89.425778983263029</v>
       </c>
       <c r="K106">
+        <f t="shared" si="7"/>
+        <v>134.35711912584441</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="8"/>
+        <v>117.75130254678525</v>
+      </c>
+      <c r="M106">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107">
         <f t="shared" si="9"/>
-        <v>134.35711912584441</v>
-      </c>
-      <c r="L106">
-        <f t="shared" si="10"/>
-        <v>117.75130254678525</v>
-      </c>
-      <c r="M106">
-        <f t="shared" si="7"/>
-        <v>6.7754987858109965</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
       <c r="B107" t="s">
         <v>23</v>
       </c>
       <c r="C107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>106</v>
       </c>
       <c r="D107">
@@ -6279,28 +5383,27 @@
         <v>90.168738956661215</v>
       </c>
       <c r="K107">
+        <f t="shared" si="7"/>
+        <v>134.84440178670306</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="8"/>
+        <v>118.72959432799675</v>
+      </c>
+      <c r="M107">
+        <v>54.39</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108">
         <f t="shared" si="9"/>
-        <v>134.84440178670306</v>
-      </c>
-      <c r="L107">
-        <f t="shared" si="10"/>
-        <v>118.72959432799675</v>
-      </c>
-      <c r="M107">
-        <f t="shared" si="7"/>
-        <v>6.8071466472693913</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
       <c r="B108" t="s">
         <v>24</v>
       </c>
       <c r="C108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>107</v>
       </c>
       <c r="D108">
@@ -6325,28 +5428,27 @@
         <v>90.611776518683214</v>
       </c>
       <c r="K108">
+        <f t="shared" si="7"/>
+        <v>135.50001845767653</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="8"/>
+        <v>119.31296358234795</v>
+      </c>
+      <c r="M108">
+        <v>54.31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109">
         <f t="shared" si="9"/>
-        <v>135.50001845767653</v>
-      </c>
-      <c r="L108">
-        <f t="shared" si="10"/>
-        <v>119.31296358234795</v>
-      </c>
-      <c r="M108">
-        <f t="shared" si="7"/>
-        <v>6.806535080958076</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <f t="shared" si="11"/>
         <v>2021</v>
       </c>
       <c r="B109" t="s">
         <v>25</v>
       </c>
       <c r="C109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>108</v>
       </c>
       <c r="D109">
@@ -6371,28 +5473,27 @@
         <v>90.890182757069368</v>
       </c>
       <c r="K109">
+        <f t="shared" si="7"/>
+        <v>135.73037026099149</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="8"/>
+        <v>119.67955471054216</v>
+      </c>
+      <c r="M109">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110">
         <f t="shared" si="9"/>
-        <v>135.73037026099149</v>
-      </c>
-      <c r="L109">
-        <f t="shared" si="10"/>
-        <v>119.67955471054216</v>
-      </c>
-      <c r="M109">
-        <f t="shared" si="7"/>
-        <v>6.8106677464378702</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <f t="shared" si="11"/>
         <v>2022</v>
       </c>
       <c r="B110" t="s">
         <v>0</v>
       </c>
       <c r="C110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>109</v>
       </c>
       <c r="D110">
@@ -6417,28 +5518,27 @@
         <v>91.654984906078667</v>
       </c>
       <c r="K110">
+        <f t="shared" si="7"/>
+        <v>135.6772121525342</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="8"/>
+        <v>120.6866071540359</v>
+      </c>
+      <c r="M110">
+        <v>54.87</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111">
         <f t="shared" si="9"/>
-        <v>135.6772121525342</v>
-      </c>
-      <c r="L110">
-        <f t="shared" si="10"/>
-        <v>120.6866071540359</v>
-      </c>
-      <c r="M110">
-        <f t="shared" si="7"/>
-        <v>6.8478915012318273</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <f t="shared" si="11"/>
         <v>2022</v>
       </c>
       <c r="B111" t="s">
         <v>15</v>
       </c>
       <c r="C111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="D111">
@@ -6463,28 +5563,27 @@
         <v>92.492159636963493</v>
       </c>
       <c r="K111">
+        <f t="shared" si="7"/>
+        <v>136.2530916608217</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="8"/>
+        <v>121.78895612031543</v>
+      </c>
+      <c r="M111">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112">
         <f t="shared" si="9"/>
-        <v>136.2530916608217</v>
-      </c>
-      <c r="L111">
-        <f t="shared" si="10"/>
-        <v>121.78895612031543</v>
-      </c>
-      <c r="M111">
-        <f t="shared" si="7"/>
-        <v>6.8818852363401728</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <f t="shared" si="11"/>
         <v>2022</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
       </c>
       <c r="C112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>111</v>
       </c>
       <c r="D112">
@@ -6509,28 +5608,27 @@
         <v>93.727057565542836</v>
       </c>
       <c r="K112">
+        <f t="shared" si="7"/>
+        <v>138.29081915168518</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="8"/>
+        <v>123.41500669830101</v>
+      </c>
+      <c r="M112">
+        <v>54.65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113">
         <f t="shared" si="9"/>
-        <v>138.29081915168518</v>
-      </c>
-      <c r="L112">
-        <f t="shared" si="10"/>
-        <v>123.41500669830101</v>
-      </c>
-      <c r="M112">
-        <f t="shared" si="7"/>
-        <v>6.8638872104155393</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <f t="shared" si="11"/>
         <v>2022</v>
       </c>
       <c r="B113" t="s">
         <v>17</v>
       </c>
       <c r="C113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>112</v>
       </c>
       <c r="D113">
@@ -6555,28 +5653,27 @@
         <v>94.250291772345847</v>
       </c>
       <c r="K113">
+        <f t="shared" si="7"/>
+        <v>139.03503267008745</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="8"/>
+        <v>124.10397480222572</v>
+      </c>
+      <c r="M113">
+        <v>54.44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114">
         <f t="shared" si="9"/>
-        <v>139.03503267008745</v>
-      </c>
-      <c r="L113">
-        <f t="shared" si="10"/>
-        <v>124.10397480222572</v>
-      </c>
-      <c r="M113">
-        <f t="shared" si="7"/>
-        <v>6.8381599850395096</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <f t="shared" si="11"/>
         <v>2022</v>
       </c>
       <c r="B114" t="s">
         <v>18</v>
       </c>
       <c r="C114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>113</v>
       </c>
       <c r="D114">
@@ -6601,28 +5698,27 @@
         <v>95.289262125667491</v>
       </c>
       <c r="K114">
+        <f t="shared" si="7"/>
+        <v>140.85126804237879</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="8"/>
+        <v>125.47203794690364</v>
+      </c>
+      <c r="M114">
+        <v>53.61</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115">
         <f t="shared" si="9"/>
-        <v>140.85126804237879</v>
-      </c>
-      <c r="L114">
-        <f t="shared" si="10"/>
-        <v>125.47203794690364</v>
-      </c>
-      <c r="M114">
-        <f t="shared" si="7"/>
-        <v>6.8330245187727821</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <f t="shared" si="11"/>
         <v>2022</v>
       </c>
       <c r="B115" t="s">
         <v>19</v>
       </c>
       <c r="C115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>114</v>
       </c>
       <c r="D115">
@@ -6647,28 +5743,27 @@
         <v>96.598162649227703</v>
       </c>
       <c r="K115">
+        <f t="shared" si="7"/>
+        <v>143.42943630255817</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="8"/>
+        <v>127.19553136575585</v>
+      </c>
+      <c r="M115">
+        <v>53.57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116">
         <f t="shared" si="9"/>
-        <v>143.42943630255817</v>
-      </c>
-      <c r="L115">
-        <f t="shared" si="10"/>
-        <v>127.19553136575585</v>
-      </c>
-      <c r="M115">
-        <f t="shared" si="7"/>
-        <v>6.8620232490938031</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <f t="shared" si="11"/>
         <v>2022</v>
       </c>
       <c r="B116" t="s">
         <v>20</v>
       </c>
       <c r="C116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>115</v>
       </c>
       <c r="D116">
@@ -6693,28 +5788,27 @@
         <v>96.58675255749057</v>
       </c>
       <c r="K116">
+        <f t="shared" si="7"/>
+        <v>144.97988113256298</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="8"/>
+        <v>127.18050713919051</v>
+      </c>
+      <c r="M116">
+        <v>52.64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117">
         <f t="shared" si="9"/>
-        <v>144.97988113256298</v>
-      </c>
-      <c r="L116">
-        <f t="shared" si="10"/>
-        <v>127.18050713919051</v>
-      </c>
-      <c r="M116">
-        <f t="shared" si="7"/>
-        <v>6.7855084431046642</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <f t="shared" si="11"/>
         <v>2022</v>
       </c>
       <c r="B117" t="s">
         <v>21</v>
       </c>
       <c r="C117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>116</v>
       </c>
       <c r="D117">
@@ -6739,28 +5833,27 @@
         <v>96.552522282279156</v>
       </c>
       <c r="K117">
+        <f t="shared" si="7"/>
+        <v>145.97216582376603</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="8"/>
+        <v>127.13543445949452</v>
+      </c>
+      <c r="M117">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118">
         <f t="shared" si="9"/>
-        <v>145.97216582376603</v>
-      </c>
-      <c r="L117">
-        <f t="shared" si="10"/>
-        <v>127.13543445949452</v>
-      </c>
-      <c r="M117">
-        <f t="shared" si="7"/>
-        <v>6.7327565050228202</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <f t="shared" si="11"/>
         <v>2022</v>
       </c>
       <c r="B118" t="s">
         <v>22</v>
       </c>
       <c r="C118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>117</v>
       </c>
       <c r="D118">
@@ -6785,28 +5878,27 @@
         <v>96.760185951895053</v>
       </c>
       <c r="K118">
+        <f t="shared" si="7"/>
+        <v>146.49488722359627</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="8"/>
+        <v>127.40887538298362</v>
+      </c>
+      <c r="M118">
+        <v>52.66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119">
         <f t="shared" si="9"/>
-        <v>146.49488722359627</v>
-      </c>
-      <c r="L118">
-        <f t="shared" si="10"/>
-        <v>127.40887538298362</v>
-      </c>
-      <c r="M118">
-        <f t="shared" si="7"/>
-        <v>6.796270083597876</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <f t="shared" si="11"/>
         <v>2022</v>
       </c>
       <c r="B119" t="s">
         <v>23</v>
       </c>
       <c r="C119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>118</v>
       </c>
       <c r="D119">
@@ -6831,28 +5923,27 @@
         <v>97.152693107652595</v>
       </c>
       <c r="K119">
+        <f t="shared" si="7"/>
+        <v>147.93015615194355</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="8"/>
+        <v>127.9257087768312</v>
+      </c>
+      <c r="M119">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120">
         <f t="shared" si="9"/>
-        <v>147.93015615194355</v>
-      </c>
-      <c r="L119">
-        <f t="shared" si="10"/>
-        <v>127.9257087768312</v>
-      </c>
-      <c r="M119">
-        <f t="shared" si="7"/>
-        <v>6.7965336196492272</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <f t="shared" si="11"/>
         <v>2022</v>
       </c>
       <c r="B120" t="s">
         <v>24</v>
       </c>
       <c r="C120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>119</v>
       </c>
       <c r="D120">
@@ -6877,28 +5968,27 @@
         <v>97.054566318713213</v>
       </c>
       <c r="K120">
+        <f t="shared" si="7"/>
+        <v>147.9212964672007</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="8"/>
+        <v>127.79650042836931</v>
+      </c>
+      <c r="M120">
+        <v>52.77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121">
         <f t="shared" si="9"/>
-        <v>147.9212964672007</v>
-      </c>
-      <c r="L120">
-        <f t="shared" si="10"/>
-        <v>127.79650042836931</v>
-      </c>
-      <c r="M120">
-        <f t="shared" si="7"/>
-        <v>6.7499149222112313</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <f t="shared" si="11"/>
         <v>2022</v>
       </c>
       <c r="B121" t="s">
         <v>25</v>
       </c>
       <c r="C121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="D121">
@@ -6923,28 +6013,27 @@
         <v>96.756599923063405</v>
       </c>
       <c r="K121">
+        <f t="shared" si="7"/>
+        <v>148.26682417217319</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="8"/>
+        <v>127.40415348320597</v>
+      </c>
+      <c r="M121">
+        <v>53.56</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122">
         <f t="shared" si="9"/>
-        <v>148.26682417217319</v>
-      </c>
-      <c r="L121">
-        <f t="shared" si="10"/>
-        <v>127.40415348320597</v>
-      </c>
-      <c r="M121">
-        <f t="shared" si="7"/>
-        <v>6.7625626048350327</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <f t="shared" si="11"/>
         <v>2023</v>
       </c>
       <c r="B122" t="s">
         <v>0</v>
       </c>
       <c r="C122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
       <c r="D122">
@@ -6969,28 +6058,27 @@
         <v>97.530204142841313</v>
       </c>
       <c r="K122">
+        <f t="shared" si="7"/>
+        <v>148.82498431097488</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="8"/>
+        <v>128.42279604433577</v>
+      </c>
+      <c r="M122">
+        <v>54.11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123">
         <f t="shared" si="9"/>
-        <v>148.82498431097488</v>
-      </c>
-      <c r="L122">
-        <f t="shared" si="10"/>
-        <v>128.42279604433577</v>
-      </c>
-      <c r="M122">
-        <f t="shared" si="7"/>
-        <v>6.7702960600282065</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <f t="shared" si="11"/>
         <v>2023</v>
       </c>
       <c r="B123" t="s">
         <v>15</v>
       </c>
       <c r="C123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>122</v>
       </c>
       <c r="D123">
@@ -7015,28 +6103,27 @@
         <v>98.074628520013292</v>
       </c>
       <c r="K123">
+        <f t="shared" si="7"/>
+        <v>149.77297057846357</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="8"/>
+        <v>129.13966628331039</v>
+      </c>
+      <c r="M123">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124">
         <f t="shared" si="9"/>
-        <v>149.77297057846357</v>
-      </c>
-      <c r="L123">
-        <f t="shared" si="10"/>
-        <v>129.13966628331039</v>
-      </c>
-      <c r="M123">
-        <f t="shared" si="7"/>
-        <v>6.7493688537051701</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <f t="shared" si="11"/>
         <v>2023</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
       </c>
       <c r="C124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>123</v>
       </c>
       <c r="D124">
@@ -7061,28 +6148,27 @@
         <v>98.399327130590137</v>
       </c>
       <c r="K124">
+        <f t="shared" si="7"/>
+        <v>150.33999040200817</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="8"/>
+        <v>129.56721284499827</v>
+      </c>
+      <c r="M124">
+        <v>53.66</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125">
         <f t="shared" si="9"/>
-        <v>150.33999040200817</v>
-      </c>
-      <c r="L124">
-        <f t="shared" si="10"/>
-        <v>129.56721284499827</v>
-      </c>
-      <c r="M124">
-        <f t="shared" si="7"/>
-        <v>6.7244474221950528</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <f t="shared" si="11"/>
         <v>2023</v>
       </c>
       <c r="B125" t="s">
         <v>17</v>
       </c>
       <c r="C125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>124</v>
       </c>
       <c r="D125">
@@ -7107,28 +6193,27 @@
         <v>98.897133132950387</v>
       </c>
       <c r="K125">
+        <f t="shared" si="7"/>
+        <v>150.59692125955181</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="8"/>
+        <v>130.2226983868631</v>
+      </c>
+      <c r="M125">
+        <v>54.01</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126">
         <f t="shared" si="9"/>
-        <v>150.59692125955181</v>
-      </c>
-      <c r="L125">
-        <f t="shared" si="10"/>
-        <v>130.2226983868631</v>
-      </c>
-      <c r="M125">
-        <f t="shared" si="7"/>
-        <v>6.743641610310589</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <f t="shared" si="11"/>
         <v>2023</v>
       </c>
       <c r="B126" t="s">
         <v>18</v>
       </c>
       <c r="C126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="D126">
@@ -7153,28 +6238,27 @@
         <v>99.146199135441051</v>
       </c>
       <c r="K126">
+        <f t="shared" si="7"/>
+        <v>150.05648049023586</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="8"/>
+        <v>130.55065578960358</v>
+      </c>
+      <c r="M126">
+        <v>54.23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127">
         <f t="shared" si="9"/>
-        <v>150.05648049023586</v>
-      </c>
-      <c r="L126">
-        <f t="shared" si="10"/>
-        <v>130.55065578960358</v>
-      </c>
-      <c r="M126">
-        <f t="shared" si="7"/>
-        <v>6.7941830381922586</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <f t="shared" si="11"/>
         <v>2023</v>
       </c>
       <c r="B127" t="s">
         <v>19</v>
       </c>
       <c r="C127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>126</v>
       </c>
       <c r="D127">
@@ -7199,28 +6283,27 @@
         <v>99.466333709323024</v>
       </c>
       <c r="K127">
+        <f t="shared" si="7"/>
+        <v>150.49946472738009</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="8"/>
+        <v>130.97219266066531</v>
+      </c>
+      <c r="M127">
+        <v>54.42</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128">
         <f t="shared" si="9"/>
-        <v>150.49946472738009</v>
-      </c>
-      <c r="L127">
-        <f t="shared" si="10"/>
-        <v>130.97219266066531</v>
-      </c>
-      <c r="M127">
-        <f t="shared" si="7"/>
-        <v>6.8205687136066162</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <f t="shared" si="11"/>
         <v>2023</v>
       </c>
       <c r="B128" t="s">
         <v>20</v>
       </c>
       <c r="C128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>127</v>
       </c>
       <c r="D128">
@@ -7245,28 +6328,27 @@
         <v>99.656067234780565</v>
       </c>
       <c r="K128">
+        <f t="shared" si="7"/>
+        <v>151.55376721178334</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="8"/>
+        <v>131.22202408526604</v>
+      </c>
+      <c r="M128">
+        <v>54.45</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129">
         <f t="shared" si="9"/>
-        <v>151.55376721178334</v>
-      </c>
-      <c r="L128">
-        <f t="shared" si="10"/>
-        <v>131.22202408526604</v>
-      </c>
-      <c r="M128">
-        <f t="shared" si="7"/>
-        <v>6.7970366424093882</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <f t="shared" si="11"/>
         <v>2023</v>
       </c>
       <c r="B129" t="s">
         <v>21</v>
       </c>
       <c r="C129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>128</v>
       </c>
       <c r="D129">
@@ -7291,28 +6373,27 @@
         <v>100.09128073389711</v>
       </c>
       <c r="K129">
+        <f t="shared" si="7"/>
+        <v>152.50175347927197</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="8"/>
+        <v>131.79509101282963</v>
+      </c>
+      <c r="M129">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130">
         <f t="shared" si="9"/>
-        <v>152.50175347927197</v>
-      </c>
-      <c r="L129">
-        <f t="shared" si="10"/>
-        <v>131.79509101282963</v>
-      </c>
-      <c r="M129">
-        <f t="shared" si="7"/>
-        <v>6.7908260251369663</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <f t="shared" si="11"/>
         <v>2023</v>
       </c>
       <c r="B130" t="s">
         <v>22</v>
       </c>
       <c r="C130">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>129</v>
       </c>
       <c r="D130">
@@ -7337,28 +6418,27 @@
         <v>100.34002073376669</v>
       </c>
       <c r="K130">
+        <f t="shared" si="7"/>
+        <v>153.36114289933178</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="8"/>
+        <v>132.12261915195393</v>
+      </c>
+      <c r="M130">
+        <v>53.88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131">
         <f t="shared" si="9"/>
-        <v>153.36114289933178</v>
-      </c>
-      <c r="L130">
-        <f t="shared" si="10"/>
-        <v>132.12261915195393</v>
-      </c>
-      <c r="M130">
-        <f t="shared" si="7"/>
-        <v>6.776213314799433</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <f t="shared" si="11"/>
         <v>2023</v>
       </c>
       <c r="B131" t="s">
         <v>23</v>
       </c>
       <c r="C131">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>130</v>
       </c>
       <c r="D131">
@@ -7383,28 +6463,27 @@
         <v>100.3015524244815</v>
       </c>
       <c r="K131">
+        <f t="shared" si="7"/>
+        <v>155.30141385802352</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="8"/>
+        <v>132.07196604524796</v>
+      </c>
+      <c r="M131">
+        <v>52.74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132">
         <f t="shared" si="9"/>
-        <v>155.30141385802352</v>
-      </c>
-      <c r="L131">
-        <f t="shared" si="10"/>
-        <v>132.07196604524796</v>
-      </c>
-      <c r="M131">
-        <f t="shared" ref="M131:M154" si="12">D131*(L131/K131)</f>
-        <v>6.6668181931769706</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <f t="shared" si="11"/>
         <v>2023</v>
       </c>
       <c r="B132" t="s">
         <v>24</v>
       </c>
       <c r="C132">
-        <f t="shared" ref="C132:C155" si="13">C131+1</f>
+        <f t="shared" ref="C132:C155" si="10">C131+1</f>
         <v>131</v>
       </c>
       <c r="D132">
@@ -7429,28 +6508,27 @@
         <v>100.09943079942363</v>
       </c>
       <c r="K132">
+        <f t="shared" si="7"/>
+        <v>154.28255011259176</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="8"/>
+        <v>131.80582260323342</v>
+      </c>
+      <c r="M132">
+        <v>53.45</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133">
         <f t="shared" si="9"/>
-        <v>154.28255011259176</v>
-      </c>
-      <c r="L132">
-        <f t="shared" si="10"/>
-        <v>131.80582260323342</v>
-      </c>
-      <c r="M132">
-        <f t="shared" si="12"/>
-        <v>6.6858141675178482</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <f t="shared" si="11"/>
         <v>2023</v>
       </c>
       <c r="B133" t="s">
         <v>25</v>
       </c>
       <c r="C133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>132</v>
       </c>
       <c r="D133">
@@ -7475,28 +6553,27 @@
         <v>100</v>
       </c>
       <c r="K133">
+        <f t="shared" si="7"/>
+        <v>154.45974380744946</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="8"/>
+        <v>131.67489720030693</v>
+      </c>
+      <c r="M133">
+        <v>53.75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134">
         <f t="shared" si="9"/>
-        <v>154.45974380744946</v>
-      </c>
-      <c r="L133">
-        <f t="shared" si="10"/>
-        <v>131.67489720030693</v>
-      </c>
-      <c r="M133">
-        <f t="shared" si="12"/>
-        <v>6.6766555322399572</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <f t="shared" si="11"/>
         <v>2024</v>
       </c>
       <c r="B134" t="s">
         <v>0</v>
       </c>
       <c r="C134">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>133</v>
       </c>
       <c r="D134">
@@ -7521,28 +6598,27 @@
         <v>100.54475037979304</v>
       </c>
       <c r="K134">
+        <f t="shared" si="7"/>
+        <v>154.50053044739926</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="8"/>
+        <v>132.39219670289768</v>
+      </c>
+      <c r="M134">
+        <v>53.87</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135">
         <f t="shared" si="9"/>
-        <v>154.50053044739926</v>
-      </c>
-      <c r="L134">
-        <f t="shared" si="10"/>
-        <v>132.39219670289768</v>
-      </c>
-      <c r="M134">
-        <f t="shared" si="12"/>
-        <v>6.6983194916297286</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <f t="shared" si="11"/>
         <v>2024</v>
       </c>
       <c r="B135" t="s">
         <v>15</v>
       </c>
       <c r="C135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>134</v>
       </c>
       <c r="D135">
@@ -7567,28 +6643,27 @@
         <v>101.16708938339866</v>
       </c>
       <c r="K135">
+        <f t="shared" si="7"/>
+        <v>154.71608365367487</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="8"/>
+        <v>133.21166094613278</v>
+      </c>
+      <c r="M135">
+        <v>53.86</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136">
         <f t="shared" si="9"/>
-        <v>154.71608365367487</v>
-      </c>
-      <c r="L135">
-        <f t="shared" si="10"/>
-        <v>133.21166094613278</v>
-      </c>
-      <c r="M135">
-        <f t="shared" si="12"/>
-        <v>6.7249225135416957</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <f t="shared" si="11"/>
         <v>2024</v>
       </c>
       <c r="B136" t="s">
         <v>16</v>
       </c>
       <c r="C136">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>135</v>
       </c>
       <c r="D136">
@@ -7613,28 +6688,27 @@
         <v>101.82105064124717</v>
       </c>
       <c r="K136">
+        <f t="shared" si="7"/>
+        <v>155.19352490017346</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="8"/>
+        <v>134.07276376013465</v>
+      </c>
+      <c r="M136">
+        <v>53.88</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137">
         <f t="shared" si="9"/>
-        <v>155.19352490017346</v>
-      </c>
-      <c r="L136">
-        <f t="shared" si="10"/>
-        <v>134.07276376013465</v>
-      </c>
-      <c r="M136">
-        <f t="shared" si="12"/>
-        <v>6.7393942208299293</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <f t="shared" si="11"/>
         <v>2024</v>
       </c>
       <c r="B137" t="s">
         <v>17</v>
       </c>
       <c r="C137">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>136</v>
       </c>
       <c r="D137">
@@ -7659,28 +6733,27 @@
         <v>102.21746982845742</v>
       </c>
       <c r="K137">
+        <f t="shared" si="7"/>
+        <v>155.65305171148495</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="8"/>
+        <v>134.59474831737606</v>
+      </c>
+      <c r="M137">
+        <v>53.63</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138">
         <f t="shared" si="9"/>
-        <v>155.65305171148495</v>
-      </c>
-      <c r="L137">
-        <f t="shared" si="10"/>
-        <v>134.59474831737606</v>
-      </c>
-      <c r="M137">
-        <f t="shared" si="12"/>
-        <v>6.7254937776108381</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <f t="shared" si="11"/>
         <v>2024</v>
       </c>
       <c r="B138" t="s">
         <v>18</v>
       </c>
       <c r="C138">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>137</v>
       </c>
       <c r="D138">
@@ -7705,28 +6778,27 @@
         <v>102.38731719403025</v>
       </c>
       <c r="K138">
+        <f t="shared" si="7"/>
+        <v>155.69739321709162</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="8"/>
+        <v>134.81839466139149</v>
+      </c>
+      <c r="M138">
+        <v>53.56</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139">
         <f t="shared" si="9"/>
-        <v>155.69739321709162</v>
-      </c>
-      <c r="L138">
-        <f t="shared" si="10"/>
-        <v>134.81839466139149</v>
-      </c>
-      <c r="M138">
-        <f t="shared" si="12"/>
-        <v>6.7245198780746644</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <f t="shared" si="11"/>
         <v>2024</v>
       </c>
       <c r="B139" t="s">
         <v>19</v>
       </c>
       <c r="C139">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>138</v>
       </c>
       <c r="D139">
@@ -7751,28 +6823,27 @@
         <v>102.42187347186272</v>
       </c>
       <c r="K139">
+        <f t="shared" si="7"/>
+        <v>155.94596781914427</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="8"/>
+        <v>134.86389660470365</v>
+      </c>
+      <c r="M139">
+        <v>52.85</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140">
         <f t="shared" si="9"/>
-        <v>155.94596781914427</v>
-      </c>
-      <c r="L139">
-        <f t="shared" si="10"/>
-        <v>134.86389660470365</v>
-      </c>
-      <c r="M139">
-        <f t="shared" si="12"/>
-        <v>6.7143633998756931</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <f t="shared" si="11"/>
         <v>2024</v>
       </c>
       <c r="B140" t="s">
         <v>20</v>
       </c>
       <c r="C140">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>139</v>
       </c>
       <c r="D140">
@@ -7797,28 +6868,27 @@
         <v>102.54086442855002</v>
       </c>
       <c r="K140">
+        <f t="shared" si="7"/>
+        <v>157.28488975155963</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="8"/>
+        <v>135.02057782459934</v>
+      </c>
+      <c r="M140">
+        <v>52.48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141">
         <f t="shared" si="9"/>
-        <v>157.28488975155963</v>
-      </c>
-      <c r="L140">
-        <f t="shared" si="10"/>
-        <v>135.02057782459934</v>
-      </c>
-      <c r="M140">
-        <f t="shared" si="12"/>
-        <v>6.6556216473706744</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <f t="shared" si="11"/>
         <v>2024</v>
       </c>
       <c r="B141" t="s">
         <v>21</v>
       </c>
       <c r="C141">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="D141">
@@ -7843,28 +6913,27 @@
         <v>102.62432109954165</v>
       </c>
       <c r="K141">
+        <f t="shared" si="7"/>
+        <v>157.18687185773257</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="8"/>
+        <v>135.13046931033435</v>
+      </c>
+      <c r="M141">
+        <v>52.46</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142">
         <f t="shared" si="9"/>
-        <v>157.18687185773257</v>
-      </c>
-      <c r="L141">
-        <f t="shared" si="10"/>
-        <v>135.13046931033435</v>
-      </c>
-      <c r="M141">
-        <f t="shared" si="12"/>
-        <v>6.649993082825457</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <f t="shared" si="11"/>
         <v>2024</v>
       </c>
       <c r="B142" t="s">
         <v>22</v>
       </c>
       <c r="C142">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>141</v>
       </c>
       <c r="D142">
@@ -7889,28 +6958,27 @@
         <v>102.78895242317748</v>
       </c>
       <c r="K142">
-        <f t="shared" ref="K142:K154" si="14">I142/AVERAGE($I$2:$I$13)*100</f>
+        <f t="shared" ref="K142:K154" si="11">I142/AVERAGE($I$2:$I$13)*100</f>
         <v>156.5941850152175</v>
       </c>
       <c r="L142">
-        <f t="shared" ref="L142:L154" si="15">J142/AVERAGE($J$2:$J$13)*100</f>
+        <f t="shared" ref="L142:L154" si="12">J142/AVERAGE($J$2:$J$13)*100</f>
         <v>135.3472474364913</v>
       </c>
       <c r="M142">
-        <f t="shared" si="12"/>
-        <v>6.6806502682410693</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+        <v>52.55</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143">
-        <f t="shared" ref="A143:A155" si="16">A131+1</f>
+        <f t="shared" ref="A143:A155" si="13">A131+1</f>
         <v>2024</v>
       </c>
       <c r="B143" t="s">
         <v>23</v>
       </c>
       <c r="C143">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>142</v>
       </c>
       <c r="D143">
@@ -7935,28 +7003,27 @@
         <v>102.90729137462264</v>
       </c>
       <c r="K143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>157.1094368966539</v>
       </c>
       <c r="L143">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>135.50307012915468</v>
       </c>
       <c r="M143">
-        <f t="shared" si="12"/>
-        <v>6.6669370904013086</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+        <v>52.24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>2024</v>
       </c>
       <c r="B144" t="s">
         <v>24</v>
       </c>
       <c r="C144">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>143</v>
       </c>
       <c r="D144">
@@ -7981,28 +7048,27 @@
         <v>102.85154492642121</v>
       </c>
       <c r="K144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>156.8431310064658</v>
       </c>
       <c r="L144">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>135.4296660507926</v>
       </c>
       <c r="M144">
-        <f t="shared" si="12"/>
-        <v>6.6573698098934653</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+        <v>51.85</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>2024</v>
       </c>
       <c r="B145" t="s">
         <v>25</v>
       </c>
       <c r="C145">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>144</v>
       </c>
       <c r="D145">
@@ -8027,28 +7093,27 @@
         <v>102.88805721998006</v>
       </c>
       <c r="K145">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>157.08996944987902</v>
       </c>
       <c r="L145">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>135.4777435758017</v>
       </c>
       <c r="M145">
-        <f t="shared" si="12"/>
-        <v>6.6430678015128013</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+        <v>51.63</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>2025</v>
       </c>
       <c r="B146" t="s">
         <v>0</v>
       </c>
       <c r="C146">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>145</v>
       </c>
       <c r="D146">
@@ -8073,28 +7138,27 @@
         <v>103.56157863509223</v>
       </c>
       <c r="K146">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>157.87771804385881</v>
       </c>
       <c r="L146">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>136.3646022067727</v>
       </c>
       <c r="M146">
-        <f t="shared" si="12"/>
-        <v>6.6670280992995821</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+        <v>52.06</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>2025</v>
       </c>
       <c r="B147" t="s">
         <v>15</v>
       </c>
       <c r="C147">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>146</v>
       </c>
       <c r="D147">
@@ -8119,28 +7183,27 @@
         <v>104.02156833340941</v>
       </c>
       <c r="K147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>157.49078298649923</v>
       </c>
       <c r="L147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>136.97029316916385</v>
       </c>
       <c r="M147">
-        <f t="shared" si="12"/>
-        <v>6.7075451497569532</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+        <v>52.43</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>2025</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
       </c>
       <c r="C148">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>147</v>
       </c>
       <c r="D148">
@@ -8165,28 +7228,27 @@
         <v>104.25531221271019</v>
       </c>
       <c r="K148">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>157.63144161971135</v>
       </c>
       <c r="L148">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>137.27807518194516</v>
       </c>
       <c r="M148">
-        <f t="shared" si="12"/>
-        <v>6.7109318688979958</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+        <v>52.69</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>2025</v>
       </c>
       <c r="B149" t="s">
         <v>17</v>
       </c>
       <c r="C149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>148</v>
       </c>
       <c r="D149">
@@ -8211,28 +7273,27 @@
         <v>104.58001082328703</v>
       </c>
       <c r="K149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>157.94401636018273</v>
       </c>
       <c r="L149">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>137.70562174363303</v>
       </c>
       <c r="M149">
-        <f t="shared" si="12"/>
-        <v>6.715158009990124</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+        <v>52.74</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>2025</v>
       </c>
       <c r="B150" t="s">
         <v>18</v>
       </c>
       <c r="C150">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>149</v>
       </c>
       <c r="D150">
@@ -8257,28 +7318,27 @@
         <v>104.79843257939794</v>
       </c>
       <c r="K150">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>158.33473478577193</v>
       </c>
       <c r="L150">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>137.99322836645518</v>
       </c>
       <c r="M150">
-        <f t="shared" si="12"/>
-        <v>6.6888415244383523</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+        <v>52.84</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>2025</v>
       </c>
       <c r="B151" t="s">
         <v>19</v>
       </c>
       <c r="C151">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="D151">
@@ -8303,28 +7363,27 @@
         <v>105.15573145208087</v>
       </c>
       <c r="K151">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>158.72545321136116</v>
       </c>
       <c r="L151">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>138.46370128975829</v>
       </c>
       <c r="M151">
-        <f t="shared" si="12"/>
-        <v>6.70296306003317</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+        <v>53.14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>2025</v>
       </c>
       <c r="B152" t="s">
         <v>20</v>
       </c>
       <c r="C152">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>151</v>
       </c>
       <c r="D152">
@@ -8349,28 +7408,27 @@
         <v>105.31449472853762</v>
       </c>
       <c r="K152">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>159.11617163695038</v>
       </c>
       <c r="L152">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>138.67275267082454</v>
       </c>
       <c r="M152">
-        <f t="shared" si="12"/>
-        <v>6.6878923244819743</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>2025</v>
       </c>
       <c r="B153" t="s">
         <v>21</v>
       </c>
       <c r="C153">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>152</v>
       </c>
       <c r="D153">
@@ -8395,28 +7453,27 @@
         <v>105.61702516088229</v>
       </c>
       <c r="K153">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>159.02239921480896</v>
       </c>
       <c r="L153">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>139.07110930661403</v>
       </c>
       <c r="M153">
-        <f t="shared" si="12"/>
-        <v>6.7003024523744248</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+        <v>53.15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>2025</v>
       </c>
       <c r="B154" t="s">
         <v>22</v>
       </c>
       <c r="C154">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>153</v>
       </c>
       <c r="D154">
@@ -8441,28 +7498,24 @@
         <v>105.63916560688769</v>
       </c>
       <c r="K154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>158.89736931862041</v>
       </c>
       <c r="L154">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>139.10026271613134</v>
       </c>
-      <c r="M154">
-        <f t="shared" si="12"/>
-        <v>6.7033211234282115</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>2025</v>
       </c>
       <c r="B155" t="s">
         <v>23</v>
       </c>
       <c r="C155">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>154</v>
       </c>
       <c r="D155">
@@ -8479,7 +7532,7 @@
       </c>
       <c r="J155" s="3"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13">
       <c r="H156" s="2"/>
     </row>
   </sheetData>
